--- a/DATA/collate_cultivar_data/data/fit_of_kcp_vs_cumulative_gdd.xlsx
+++ b/DATA/collate_cultivar_data/data/fit_of_kcp_vs_cumulative_gdd.xlsx
@@ -145,7 +145,9 @@
   <dimension ref="A1:B1810"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A1797" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DATA/collate_cultivar_data/data/fit_of_kcp_vs_cumulative_gdd.xlsx
+++ b/DATA/collate_cultivar_data/data/fit_of_kcp_vs_cumulative_gdd.xlsx
@@ -7468,7 +7468,7 @@
         <v>884</v>
       </c>
       <c r="B886">
-        <v>0.4523968</v>
+        <v>0.4523969</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7476,7 +7476,7 @@
         <v>885</v>
       </c>
       <c r="B887">
-        <v>0.4526594</v>
+        <v>0.4526595</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7484,7 +7484,7 @@
         <v>886</v>
       </c>
       <c r="B888">
-        <v>0.452922</v>
+        <v>0.4529221</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7492,7 +7492,7 @@
         <v>887</v>
       </c>
       <c r="B889">
-        <v>0.4531846</v>
+        <v>0.4531847</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7500,7 +7500,7 @@
         <v>888</v>
       </c>
       <c r="B890">
-        <v>0.4534472</v>
+        <v>0.4534473</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7508,7 +7508,7 @@
         <v>889</v>
       </c>
       <c r="B891">
-        <v>0.4537098</v>
+        <v>0.4537099</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7516,7 +7516,7 @@
         <v>890</v>
       </c>
       <c r="B892">
-        <v>0.4539725</v>
+        <v>0.4539726</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7524,7 +7524,7 @@
         <v>891</v>
       </c>
       <c r="B893">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7532,7 +7532,7 @@
         <v>892</v>
       </c>
       <c r="B894">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7540,7 +7540,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7548,7 +7548,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7556,7 +7556,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7564,7 +7564,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7572,7 +7572,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7580,7 +7580,7 @@
         <v>898</v>
       </c>
       <c r="B900">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7588,7 +7588,7 @@
         <v>899</v>
       </c>
       <c r="B901">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7596,7 +7596,7 @@
         <v>900</v>
       </c>
       <c r="B902">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7604,7 +7604,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7612,7 +7612,7 @@
         <v>902</v>
       </c>
       <c r="B904">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7620,7 +7620,7 @@
         <v>903</v>
       </c>
       <c r="B905">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7628,7 +7628,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7636,7 +7636,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7644,7 +7644,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7652,7 +7652,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7660,7 +7660,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7668,7 +7668,7 @@
         <v>909</v>
       </c>
       <c r="B911">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7676,7 +7676,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7684,7 +7684,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7692,7 +7692,7 @@
         <v>912</v>
       </c>
       <c r="B914">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7700,7 +7700,7 @@
         <v>913</v>
       </c>
       <c r="B915">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7708,7 +7708,7 @@
         <v>914</v>
       </c>
       <c r="B916">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7716,7 +7716,7 @@
         <v>915</v>
       </c>
       <c r="B917">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7724,7 +7724,7 @@
         <v>916</v>
       </c>
       <c r="B918">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7732,7 +7732,7 @@
         <v>917</v>
       </c>
       <c r="B919">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7740,7 +7740,7 @@
         <v>918</v>
       </c>
       <c r="B920">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7748,7 +7748,7 @@
         <v>919</v>
       </c>
       <c r="B921">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7756,7 +7756,7 @@
         <v>920</v>
       </c>
       <c r="B922">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7764,7 +7764,7 @@
         <v>921</v>
       </c>
       <c r="B923">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7772,7 +7772,7 @@
         <v>922</v>
       </c>
       <c r="B924">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7780,7 +7780,7 @@
         <v>923</v>
       </c>
       <c r="B925">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7788,7 +7788,7 @@
         <v>924</v>
       </c>
       <c r="B926">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7796,7 +7796,7 @@
         <v>925</v>
       </c>
       <c r="B927">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7804,7 +7804,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7812,7 +7812,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7820,7 +7820,7 @@
         <v>928</v>
       </c>
       <c r="B930">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7828,7 +7828,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7836,7 +7836,7 @@
         <v>930</v>
       </c>
       <c r="B932">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7844,7 +7844,7 @@
         <v>931</v>
       </c>
       <c r="B933">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7852,7 +7852,7 @@
         <v>932</v>
       </c>
       <c r="B934">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7860,7 +7860,7 @@
         <v>933</v>
       </c>
       <c r="B935">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7868,7 +7868,7 @@
         <v>934</v>
       </c>
       <c r="B936">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7876,7 +7876,7 @@
         <v>935</v>
       </c>
       <c r="B937">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7884,7 +7884,7 @@
         <v>936</v>
       </c>
       <c r="B938">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7892,7 +7892,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7900,7 +7900,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7908,7 +7908,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7916,7 +7916,7 @@
         <v>940</v>
       </c>
       <c r="B942">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7924,7 +7924,7 @@
         <v>941</v>
       </c>
       <c r="B943">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7932,7 +7932,7 @@
         <v>942</v>
       </c>
       <c r="B944">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7940,7 +7940,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7948,7 +7948,7 @@
         <v>944</v>
       </c>
       <c r="B946">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7956,7 +7956,7 @@
         <v>945</v>
       </c>
       <c r="B947">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7964,7 +7964,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7972,7 +7972,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7980,7 +7980,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7988,7 +7988,7 @@
         <v>949</v>
       </c>
       <c r="B951">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7996,7 +7996,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -8004,7 +8004,7 @@
         <v>951</v>
       </c>
       <c r="B953">
-        <v>0.4540358</v>
+        <v>0.4540359</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8012,7 +8012,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>0.4542077</v>
+        <v>0.4542079</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8020,7 +8020,7 @@
         <v>953</v>
       </c>
       <c r="B955">
-        <v>0.4543797</v>
+        <v>0.4543798</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8028,7 +8028,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>0.4545516</v>
+        <v>0.4545517</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8036,7 +8036,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>0.4547236</v>
+        <v>0.4547237</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8044,7 +8044,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>0.4548955</v>
+        <v>0.4548956</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8052,7 +8052,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>0.4550674</v>
+        <v>0.4550676</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8060,7 +8060,7 @@
         <v>958</v>
       </c>
       <c r="B960">
-        <v>0.4552394</v>
+        <v>0.4552395</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8068,7 +8068,7 @@
         <v>959</v>
       </c>
       <c r="B961">
-        <v>0.4554113</v>
+        <v>0.4554115</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8076,7 +8076,7 @@
         <v>960</v>
       </c>
       <c r="B962">
-        <v>0.4555832</v>
+        <v>0.4555834</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8084,7 +8084,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>0.4557552</v>
+        <v>0.4557554</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8092,7 +8092,7 @@
         <v>962</v>
       </c>
       <c r="B964">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8100,7 +8100,7 @@
         <v>963</v>
       </c>
       <c r="B965">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8108,7 +8108,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8116,7 +8116,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8124,7 +8124,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8132,7 +8132,7 @@
         <v>967</v>
       </c>
       <c r="B969">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8140,7 +8140,7 @@
         <v>968</v>
       </c>
       <c r="B970">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8148,7 +8148,7 @@
         <v>969</v>
       </c>
       <c r="B971">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8156,7 +8156,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8164,7 +8164,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8172,7 +8172,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8180,7 +8180,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8188,7 +8188,7 @@
         <v>974</v>
       </c>
       <c r="B976">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8196,7 +8196,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8204,7 +8204,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8212,7 +8212,7 @@
         <v>977</v>
       </c>
       <c r="B979">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8220,7 +8220,7 @@
         <v>978</v>
       </c>
       <c r="B980">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8228,7 +8228,7 @@
         <v>979</v>
       </c>
       <c r="B981">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8236,7 +8236,7 @@
         <v>980</v>
       </c>
       <c r="B982">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8244,7 +8244,7 @@
         <v>981</v>
       </c>
       <c r="B983">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8252,7 +8252,7 @@
         <v>982</v>
       </c>
       <c r="B984">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8260,7 +8260,7 @@
         <v>983</v>
       </c>
       <c r="B985">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8268,7 +8268,7 @@
         <v>984</v>
       </c>
       <c r="B986">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8276,7 +8276,7 @@
         <v>985</v>
       </c>
       <c r="B987">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8284,7 +8284,7 @@
         <v>986</v>
       </c>
       <c r="B988">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8292,7 +8292,7 @@
         <v>987</v>
       </c>
       <c r="B989">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8300,7 +8300,7 @@
         <v>988</v>
       </c>
       <c r="B990">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8308,7 +8308,7 @@
         <v>989</v>
       </c>
       <c r="B991">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8316,7 +8316,7 @@
         <v>990</v>
       </c>
       <c r="B992">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8324,7 +8324,7 @@
         <v>991</v>
       </c>
       <c r="B993">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8332,7 +8332,7 @@
         <v>992</v>
       </c>
       <c r="B994">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8340,7 +8340,7 @@
         <v>993</v>
       </c>
       <c r="B995">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8348,7 +8348,7 @@
         <v>994</v>
       </c>
       <c r="B996">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8356,7 +8356,7 @@
         <v>995</v>
       </c>
       <c r="B997">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8364,7 +8364,7 @@
         <v>996</v>
       </c>
       <c r="B998">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8372,7 +8372,7 @@
         <v>997</v>
       </c>
       <c r="B999">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8380,7 +8380,7 @@
         <v>998</v>
       </c>
       <c r="B1000">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8388,7 +8388,7 @@
         <v>999</v>
       </c>
       <c r="B1001">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8396,7 +8396,7 @@
         <v>1000</v>
       </c>
       <c r="B1002">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8404,7 +8404,7 @@
         <v>1001</v>
       </c>
       <c r="B1003">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8412,7 +8412,7 @@
         <v>1002</v>
       </c>
       <c r="B1004">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8420,7 +8420,7 @@
         <v>1003</v>
       </c>
       <c r="B1005">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8428,7 +8428,7 @@
         <v>1004</v>
       </c>
       <c r="B1006">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8436,7 +8436,7 @@
         <v>1005</v>
       </c>
       <c r="B1007">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8444,7 +8444,7 @@
         <v>1006</v>
       </c>
       <c r="B1008">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8452,7 +8452,7 @@
         <v>1007</v>
       </c>
       <c r="B1009">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8460,7 +8460,7 @@
         <v>1008</v>
       </c>
       <c r="B1010">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8468,7 +8468,7 @@
         <v>1009</v>
       </c>
       <c r="B1011">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8476,7 +8476,7 @@
         <v>1010</v>
       </c>
       <c r="B1012">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8484,7 +8484,7 @@
         <v>1011</v>
       </c>
       <c r="B1013">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8492,7 +8492,7 @@
         <v>1012</v>
       </c>
       <c r="B1014">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8500,7 +8500,7 @@
         <v>1013</v>
       </c>
       <c r="B1015">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8508,7 +8508,7 @@
         <v>1014</v>
       </c>
       <c r="B1016">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8516,7 +8516,7 @@
         <v>1015</v>
       </c>
       <c r="B1017">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8524,7 +8524,7 @@
         <v>1016</v>
       </c>
       <c r="B1018">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8532,7 +8532,7 @@
         <v>1017</v>
       </c>
       <c r="B1019">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8540,7 +8540,7 @@
         <v>1018</v>
       </c>
       <c r="B1020">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8548,7 +8548,7 @@
         <v>1019</v>
       </c>
       <c r="B1021">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8556,7 +8556,7 @@
         <v>1020</v>
       </c>
       <c r="B1022">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8564,7 +8564,7 @@
         <v>1021</v>
       </c>
       <c r="B1023">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8572,7 +8572,7 @@
         <v>1022</v>
       </c>
       <c r="B1024">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8580,7 +8580,7 @@
         <v>1023</v>
       </c>
       <c r="B1025">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8588,7 +8588,7 @@
         <v>1024</v>
       </c>
       <c r="B1026">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8596,7 +8596,7 @@
         <v>1025</v>
       </c>
       <c r="B1027">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8604,7 +8604,7 @@
         <v>1026</v>
       </c>
       <c r="B1028">
-        <v>0.4558675</v>
+        <v>0.4558677</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8612,7 +8612,7 @@
         <v>1027</v>
       </c>
       <c r="B1029">
-        <v>0.4559851</v>
+        <v>0.4559854</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8620,7 +8620,7 @@
         <v>1028</v>
       </c>
       <c r="B1030">
-        <v>0.4561027</v>
+        <v>0.456103</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8628,7 +8628,7 @@
         <v>1029</v>
       </c>
       <c r="B1031">
-        <v>0.4562203</v>
+        <v>0.4562207</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8636,7 +8636,7 @@
         <v>1030</v>
       </c>
       <c r="B1032">
-        <v>0.4563378</v>
+        <v>0.4563383</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8644,7 +8644,7 @@
         <v>1031</v>
       </c>
       <c r="B1033">
-        <v>0.4564554</v>
+        <v>0.456456</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8652,7 +8652,7 @@
         <v>1032</v>
       </c>
       <c r="B1034">
-        <v>0.456573</v>
+        <v>0.4565736</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8660,7 +8660,7 @@
         <v>1033</v>
       </c>
       <c r="B1035">
-        <v>0.4566906</v>
+        <v>0.4566913</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8668,7 +8668,7 @@
         <v>1034</v>
       </c>
       <c r="B1036">
-        <v>0.4568082</v>
+        <v>0.4568089</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8676,7 +8676,7 @@
         <v>1035</v>
       </c>
       <c r="B1037">
-        <v>0.4569258</v>
+        <v>0.4569266</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8684,7 +8684,7 @@
         <v>1036</v>
       </c>
       <c r="B1038">
-        <v>0.4570433</v>
+        <v>0.4570442</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8692,7 +8692,7 @@
         <v>1037</v>
       </c>
       <c r="B1039">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8700,7 +8700,7 @@
         <v>1038</v>
       </c>
       <c r="B1040">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8708,7 +8708,7 @@
         <v>1039</v>
       </c>
       <c r="B1041">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8716,7 +8716,7 @@
         <v>1040</v>
       </c>
       <c r="B1042">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8724,7 +8724,7 @@
         <v>1041</v>
       </c>
       <c r="B1043">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8732,7 +8732,7 @@
         <v>1042</v>
       </c>
       <c r="B1044">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8740,7 +8740,7 @@
         <v>1043</v>
       </c>
       <c r="B1045">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8748,7 +8748,7 @@
         <v>1044</v>
       </c>
       <c r="B1046">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8756,7 +8756,7 @@
         <v>1045</v>
       </c>
       <c r="B1047">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8764,7 +8764,7 @@
         <v>1046</v>
       </c>
       <c r="B1048">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8772,7 +8772,7 @@
         <v>1047</v>
       </c>
       <c r="B1049">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8780,7 +8780,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8788,7 +8788,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8796,7 +8796,7 @@
         <v>1050</v>
       </c>
       <c r="B1052">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8804,7 +8804,7 @@
         <v>1051</v>
       </c>
       <c r="B1053">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8812,7 +8812,7 @@
         <v>1052</v>
       </c>
       <c r="B1054">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8820,7 +8820,7 @@
         <v>1053</v>
       </c>
       <c r="B1055">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8828,7 +8828,7 @@
         <v>1054</v>
       </c>
       <c r="B1056">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8836,7 +8836,7 @@
         <v>1055</v>
       </c>
       <c r="B1057">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8844,7 +8844,7 @@
         <v>1056</v>
       </c>
       <c r="B1058">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8852,7 +8852,7 @@
         <v>1057</v>
       </c>
       <c r="B1059">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8860,7 +8860,7 @@
         <v>1058</v>
       </c>
       <c r="B1060">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8868,7 +8868,7 @@
         <v>1059</v>
       </c>
       <c r="B1061">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8876,7 +8876,7 @@
         <v>1060</v>
       </c>
       <c r="B1062">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8884,7 +8884,7 @@
         <v>1061</v>
       </c>
       <c r="B1063">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8892,7 +8892,7 @@
         <v>1062</v>
       </c>
       <c r="B1064">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8900,7 +8900,7 @@
         <v>1063</v>
       </c>
       <c r="B1065">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8908,7 +8908,7 @@
         <v>1064</v>
       </c>
       <c r="B1066">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8916,7 +8916,7 @@
         <v>1065</v>
       </c>
       <c r="B1067">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8924,7 +8924,7 @@
         <v>1066</v>
       </c>
       <c r="B1068">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8932,7 +8932,7 @@
         <v>1067</v>
       </c>
       <c r="B1069">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8940,7 +8940,7 @@
         <v>1068</v>
       </c>
       <c r="B1070">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8948,7 +8948,7 @@
         <v>1069</v>
       </c>
       <c r="B1071">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8956,7 +8956,7 @@
         <v>1070</v>
       </c>
       <c r="B1072">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -8964,7 +8964,7 @@
         <v>1071</v>
       </c>
       <c r="B1073">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8972,7 +8972,7 @@
         <v>1072</v>
       </c>
       <c r="B1074">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8980,7 +8980,7 @@
         <v>1073</v>
       </c>
       <c r="B1075">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8988,7 +8988,7 @@
         <v>1074</v>
       </c>
       <c r="B1076">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -8996,7 +8996,7 @@
         <v>1075</v>
       </c>
       <c r="B1077">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -9004,7 +9004,7 @@
         <v>1076</v>
       </c>
       <c r="B1078">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9012,7 +9012,7 @@
         <v>1077</v>
       </c>
       <c r="B1079">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9020,7 +9020,7 @@
         <v>1078</v>
       </c>
       <c r="B1080">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9028,7 +9028,7 @@
         <v>1079</v>
       </c>
       <c r="B1081">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9036,7 +9036,7 @@
         <v>1080</v>
       </c>
       <c r="B1082">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9044,7 +9044,7 @@
         <v>1081</v>
       </c>
       <c r="B1083">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9052,7 +9052,7 @@
         <v>1082</v>
       </c>
       <c r="B1084">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9060,7 +9060,7 @@
         <v>1083</v>
       </c>
       <c r="B1085">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9068,7 +9068,7 @@
         <v>1084</v>
       </c>
       <c r="B1086">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9076,7 +9076,7 @@
         <v>1085</v>
       </c>
       <c r="B1087">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9084,7 +9084,7 @@
         <v>1086</v>
       </c>
       <c r="B1088">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9092,7 +9092,7 @@
         <v>1087</v>
       </c>
       <c r="B1089">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9100,7 +9100,7 @@
         <v>1088</v>
       </c>
       <c r="B1090">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9108,7 +9108,7 @@
         <v>1089</v>
       </c>
       <c r="B1091">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9116,7 +9116,7 @@
         <v>1090</v>
       </c>
       <c r="B1092">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9124,7 +9124,7 @@
         <v>1091</v>
       </c>
       <c r="B1093">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9132,7 +9132,7 @@
         <v>1092</v>
       </c>
       <c r="B1094">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9140,7 +9140,7 @@
         <v>1093</v>
       </c>
       <c r="B1095">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9148,7 +9148,7 @@
         <v>1094</v>
       </c>
       <c r="B1096">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -9156,7 +9156,7 @@
         <v>1095</v>
       </c>
       <c r="B1097">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -9164,7 +9164,7 @@
         <v>1096</v>
       </c>
       <c r="B1098">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9172,7 +9172,7 @@
         <v>1097</v>
       </c>
       <c r="B1099">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9180,7 +9180,7 @@
         <v>1098</v>
       </c>
       <c r="B1100">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9188,7 +9188,7 @@
         <v>1099</v>
       </c>
       <c r="B1101">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9196,7 +9196,7 @@
         <v>1100</v>
       </c>
       <c r="B1102">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -9204,7 +9204,7 @@
         <v>1101</v>
       </c>
       <c r="B1103">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -9212,7 +9212,7 @@
         <v>1102</v>
       </c>
       <c r="B1104">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
@@ -9220,7 +9220,7 @@
         <v>1103</v>
       </c>
       <c r="B1105">
-        <v>0.457126</v>
+        <v>0.457127</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -9228,7 +9228,7 @@
         <v>1104</v>
       </c>
       <c r="B1106">
-        <v>0.4571966</v>
+        <v>0.4571978</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9236,7 +9236,7 @@
         <v>1105</v>
       </c>
       <c r="B1107">
-        <v>0.4572671</v>
+        <v>0.4572687</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9244,7 +9244,7 @@
         <v>1106</v>
       </c>
       <c r="B1108">
-        <v>0.4573377</v>
+        <v>0.4573395</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9252,7 +9252,7 @@
         <v>1107</v>
       </c>
       <c r="B1109">
-        <v>0.4574082</v>
+        <v>0.4574103</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9260,7 +9260,7 @@
         <v>1108</v>
       </c>
       <c r="B1110">
-        <v>0.4574788</v>
+        <v>0.4574812</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9268,7 +9268,7 @@
         <v>1109</v>
       </c>
       <c r="B1111">
-        <v>0.4575493</v>
+        <v>0.457552</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9276,7 +9276,7 @@
         <v>1110</v>
       </c>
       <c r="B1112">
-        <v>0.4576199</v>
+        <v>0.4576228</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9284,7 +9284,7 @@
         <v>1111</v>
       </c>
       <c r="B1113">
-        <v>0.4576904</v>
+        <v>0.4576936</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -9292,7 +9292,7 @@
         <v>1112</v>
       </c>
       <c r="B1114">
-        <v>0.4577609</v>
+        <v>0.4577645</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9300,7 +9300,7 @@
         <v>1113</v>
       </c>
       <c r="B1115">
-        <v>0.4578315</v>
+        <v>0.4578353</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9308,7 +9308,7 @@
         <v>1114</v>
       </c>
       <c r="B1116">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9316,7 +9316,7 @@
         <v>1115</v>
       </c>
       <c r="B1117">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9324,7 +9324,7 @@
         <v>1116</v>
       </c>
       <c r="B1118">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -9332,7 +9332,7 @@
         <v>1117</v>
       </c>
       <c r="B1119">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -9340,7 +9340,7 @@
         <v>1118</v>
       </c>
       <c r="B1120">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -9348,7 +9348,7 @@
         <v>1119</v>
       </c>
       <c r="B1121">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
@@ -9356,7 +9356,7 @@
         <v>1120</v>
       </c>
       <c r="B1122">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9364,7 +9364,7 @@
         <v>1121</v>
       </c>
       <c r="B1123">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9372,7 +9372,7 @@
         <v>1122</v>
       </c>
       <c r="B1124">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -9380,7 +9380,7 @@
         <v>1123</v>
       </c>
       <c r="B1125">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9388,7 +9388,7 @@
         <v>1124</v>
       </c>
       <c r="B1126">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -9396,7 +9396,7 @@
         <v>1125</v>
       </c>
       <c r="B1127">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9404,7 +9404,7 @@
         <v>1126</v>
       </c>
       <c r="B1128">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -9412,7 +9412,7 @@
         <v>1127</v>
       </c>
       <c r="B1129">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9420,7 +9420,7 @@
         <v>1128</v>
       </c>
       <c r="B1130">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9428,7 +9428,7 @@
         <v>1129</v>
       </c>
       <c r="B1131">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9436,7 +9436,7 @@
         <v>1130</v>
       </c>
       <c r="B1132">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -9444,7 +9444,7 @@
         <v>1131</v>
       </c>
       <c r="B1133">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9452,7 +9452,7 @@
         <v>1132</v>
       </c>
       <c r="B1134">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -9460,7 +9460,7 @@
         <v>1133</v>
       </c>
       <c r="B1135">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -9468,7 +9468,7 @@
         <v>1134</v>
       </c>
       <c r="B1136">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9476,7 +9476,7 @@
         <v>1135</v>
       </c>
       <c r="B1137">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -9484,7 +9484,7 @@
         <v>1136</v>
       </c>
       <c r="B1138">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9492,7 +9492,7 @@
         <v>1137</v>
       </c>
       <c r="B1139">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9500,7 +9500,7 @@
         <v>1138</v>
       </c>
       <c r="B1140">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -9508,7 +9508,7 @@
         <v>1139</v>
       </c>
       <c r="B1141">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9516,7 +9516,7 @@
         <v>1140</v>
       </c>
       <c r="B1142">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
@@ -9524,7 +9524,7 @@
         <v>1141</v>
       </c>
       <c r="B1143">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
@@ -9532,7 +9532,7 @@
         <v>1142</v>
       </c>
       <c r="B1144">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9540,7 +9540,7 @@
         <v>1143</v>
       </c>
       <c r="B1145">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9548,7 +9548,7 @@
         <v>1144</v>
       </c>
       <c r="B1146">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
@@ -9556,7 +9556,7 @@
         <v>1145</v>
       </c>
       <c r="B1147">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
@@ -9564,7 +9564,7 @@
         <v>1146</v>
       </c>
       <c r="B1148">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
@@ -9572,7 +9572,7 @@
         <v>1147</v>
       </c>
       <c r="B1149">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -9580,7 +9580,7 @@
         <v>1148</v>
       </c>
       <c r="B1150">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
@@ -9588,7 +9588,7 @@
         <v>1149</v>
       </c>
       <c r="B1151">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -9596,7 +9596,7 @@
         <v>1150</v>
       </c>
       <c r="B1152">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -9604,7 +9604,7 @@
         <v>1151</v>
       </c>
       <c r="B1153">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
@@ -9612,7 +9612,7 @@
         <v>1152</v>
       </c>
       <c r="B1154">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
@@ -9620,7 +9620,7 @@
         <v>1153</v>
       </c>
       <c r="B1155">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -9628,7 +9628,7 @@
         <v>1154</v>
       </c>
       <c r="B1156">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -9636,7 +9636,7 @@
         <v>1155</v>
       </c>
       <c r="B1157">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
@@ -9644,7 +9644,7 @@
         <v>1156</v>
       </c>
       <c r="B1158">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -9652,7 +9652,7 @@
         <v>1157</v>
       </c>
       <c r="B1159">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -9660,7 +9660,7 @@
         <v>1158</v>
       </c>
       <c r="B1160">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9668,7 +9668,7 @@
         <v>1159</v>
       </c>
       <c r="B1161">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9676,7 +9676,7 @@
         <v>1160</v>
       </c>
       <c r="B1162">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
@@ -9684,7 +9684,7 @@
         <v>1161</v>
       </c>
       <c r="B1163">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
@@ -9692,7 +9692,7 @@
         <v>1162</v>
       </c>
       <c r="B1164">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9700,7 +9700,7 @@
         <v>1163</v>
       </c>
       <c r="B1165">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -9708,7 +9708,7 @@
         <v>1164</v>
       </c>
       <c r="B1166">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
@@ -9716,7 +9716,7 @@
         <v>1165</v>
       </c>
       <c r="B1167">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -9724,7 +9724,7 @@
         <v>1166</v>
       </c>
       <c r="B1168">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9732,7 +9732,7 @@
         <v>1167</v>
       </c>
       <c r="B1169">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
@@ -9740,7 +9740,7 @@
         <v>1168</v>
       </c>
       <c r="B1170">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -9748,7 +9748,7 @@
         <v>1169</v>
       </c>
       <c r="B1171">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -9756,7 +9756,7 @@
         <v>1170</v>
       </c>
       <c r="B1172">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
@@ -9764,7 +9764,7 @@
         <v>1171</v>
       </c>
       <c r="B1173">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -9772,7 +9772,7 @@
         <v>1172</v>
       </c>
       <c r="B1174">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -9780,7 +9780,7 @@
         <v>1173</v>
       </c>
       <c r="B1175">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -9788,7 +9788,7 @@
         <v>1174</v>
       </c>
       <c r="B1176">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -9796,7 +9796,7 @@
         <v>1175</v>
       </c>
       <c r="B1177">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
@@ -9804,7 +9804,7 @@
         <v>1176</v>
       </c>
       <c r="B1178">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -9812,7 +9812,7 @@
         <v>1177</v>
       </c>
       <c r="B1179">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -9820,7 +9820,7 @@
         <v>1178</v>
       </c>
       <c r="B1180">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -9828,7 +9828,7 @@
         <v>1179</v>
       </c>
       <c r="B1181">
-        <v>0.4578803</v>
+        <v>0.4578851</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -9836,7 +9836,7 @@
         <v>1180</v>
       </c>
       <c r="B1182">
-        <v>0.4578773</v>
+        <v>0.4578831</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -9844,7 +9844,7 @@
         <v>1181</v>
       </c>
       <c r="B1183">
-        <v>0.4578743</v>
+        <v>0.4578812</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -9852,7 +9852,7 @@
         <v>1182</v>
       </c>
       <c r="B1184">
-        <v>0.4578712</v>
+        <v>0.4578792</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
@@ -9860,7 +9860,7 @@
         <v>1183</v>
       </c>
       <c r="B1185">
-        <v>0.4578682</v>
+        <v>0.4578773</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -9868,7 +9868,7 @@
         <v>1184</v>
       </c>
       <c r="B1186">
-        <v>0.4578652</v>
+        <v>0.4578753</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
@@ -9876,7 +9876,7 @@
         <v>1185</v>
       </c>
       <c r="B1187">
-        <v>0.4578622</v>
+        <v>0.4578734</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
@@ -9884,7 +9884,7 @@
         <v>1186</v>
       </c>
       <c r="B1188">
-        <v>0.4578592</v>
+        <v>0.4578715</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -9892,7 +9892,7 @@
         <v>1187</v>
       </c>
       <c r="B1189">
-        <v>0.4578562</v>
+        <v>0.4578695</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
@@ -9900,7 +9900,7 @@
         <v>1188</v>
       </c>
       <c r="B1190">
-        <v>0.4578532</v>
+        <v>0.4578676</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -9908,7 +9908,7 @@
         <v>1189</v>
       </c>
       <c r="B1191">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
@@ -9916,7 +9916,7 @@
         <v>1190</v>
       </c>
       <c r="B1192">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
@@ -9924,7 +9924,7 @@
         <v>1191</v>
       </c>
       <c r="B1193">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
@@ -9932,7 +9932,7 @@
         <v>1192</v>
       </c>
       <c r="B1194">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
@@ -9940,7 +9940,7 @@
         <v>1193</v>
       </c>
       <c r="B1195">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -9948,7 +9948,7 @@
         <v>1194</v>
       </c>
       <c r="B1196">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
@@ -9956,7 +9956,7 @@
         <v>1195</v>
       </c>
       <c r="B1197">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
@@ -9964,7 +9964,7 @@
         <v>1196</v>
       </c>
       <c r="B1198">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
@@ -9972,7 +9972,7 @@
         <v>1197</v>
       </c>
       <c r="B1199">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
@@ -9980,7 +9980,7 @@
         <v>1198</v>
       </c>
       <c r="B1200">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
@@ -9988,7 +9988,7 @@
         <v>1199</v>
       </c>
       <c r="B1201">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -9996,7 +9996,7 @@
         <v>1200</v>
       </c>
       <c r="B1202">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
@@ -10004,7 +10004,7 @@
         <v>1201</v>
       </c>
       <c r="B1203">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
@@ -10012,7 +10012,7 @@
         <v>1202</v>
       </c>
       <c r="B1204">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -10020,7 +10020,7 @@
         <v>1203</v>
       </c>
       <c r="B1205">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -10028,7 +10028,7 @@
         <v>1204</v>
       </c>
       <c r="B1206">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10036,7 +10036,7 @@
         <v>1205</v>
       </c>
       <c r="B1207">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
@@ -10044,7 +10044,7 @@
         <v>1206</v>
       </c>
       <c r="B1208">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
@@ -10052,7 +10052,7 @@
         <v>1207</v>
       </c>
       <c r="B1209">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
@@ -10060,7 +10060,7 @@
         <v>1208</v>
       </c>
       <c r="B1210">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
@@ -10068,7 +10068,7 @@
         <v>1209</v>
       </c>
       <c r="B1211">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
@@ -10076,7 +10076,7 @@
         <v>1210</v>
       </c>
       <c r="B1212">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
@@ -10084,7 +10084,7 @@
         <v>1211</v>
       </c>
       <c r="B1213">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -10092,7 +10092,7 @@
         <v>1212</v>
       </c>
       <c r="B1214">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
@@ -10100,7 +10100,7 @@
         <v>1213</v>
       </c>
       <c r="B1215">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10108,7 +10108,7 @@
         <v>1214</v>
       </c>
       <c r="B1216">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
@@ -10116,7 +10116,7 @@
         <v>1215</v>
       </c>
       <c r="B1217">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10124,7 +10124,7 @@
         <v>1216</v>
       </c>
       <c r="B1218">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -10132,7 +10132,7 @@
         <v>1217</v>
       </c>
       <c r="B1219">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -10140,7 +10140,7 @@
         <v>1218</v>
       </c>
       <c r="B1220">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
@@ -10148,7 +10148,7 @@
         <v>1219</v>
       </c>
       <c r="B1221">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10156,7 +10156,7 @@
         <v>1220</v>
       </c>
       <c r="B1222">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10164,7 +10164,7 @@
         <v>1221</v>
       </c>
       <c r="B1223">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -10172,7 +10172,7 @@
         <v>1222</v>
       </c>
       <c r="B1224">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
@@ -10180,7 +10180,7 @@
         <v>1223</v>
       </c>
       <c r="B1225">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
@@ -10188,7 +10188,7 @@
         <v>1224</v>
       </c>
       <c r="B1226">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10196,7 +10196,7 @@
         <v>1225</v>
       </c>
       <c r="B1227">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
@@ -10204,7 +10204,7 @@
         <v>1226</v>
       </c>
       <c r="B1228">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
@@ -10212,7 +10212,7 @@
         <v>1227</v>
       </c>
       <c r="B1229">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10220,7 +10220,7 @@
         <v>1228</v>
       </c>
       <c r="B1230">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
@@ -10228,7 +10228,7 @@
         <v>1229</v>
       </c>
       <c r="B1231">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10236,7 +10236,7 @@
         <v>1230</v>
       </c>
       <c r="B1232">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10244,7 +10244,7 @@
         <v>1231</v>
       </c>
       <c r="B1233">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
@@ -10252,7 +10252,7 @@
         <v>1232</v>
       </c>
       <c r="B1234">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10260,7 +10260,7 @@
         <v>1233</v>
       </c>
       <c r="B1235">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
@@ -10268,7 +10268,7 @@
         <v>1234</v>
       </c>
       <c r="B1236">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
@@ -10276,7 +10276,7 @@
         <v>1235</v>
       </c>
       <c r="B1237">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10284,7 +10284,7 @@
         <v>1236</v>
       </c>
       <c r="B1238">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -10292,7 +10292,7 @@
         <v>1237</v>
       </c>
       <c r="B1239">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
@@ -10300,7 +10300,7 @@
         <v>1238</v>
       </c>
       <c r="B1240">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10308,7 +10308,7 @@
         <v>1239</v>
       </c>
       <c r="B1241">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10316,7 +10316,7 @@
         <v>1240</v>
       </c>
       <c r="B1242">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10324,7 +10324,7 @@
         <v>1241</v>
       </c>
       <c r="B1243">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10332,7 +10332,7 @@
         <v>1242</v>
       </c>
       <c r="B1244">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
@@ -10340,7 +10340,7 @@
         <v>1243</v>
       </c>
       <c r="B1245">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
@@ -10348,7 +10348,7 @@
         <v>1244</v>
       </c>
       <c r="B1246">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
@@ -10356,7 +10356,7 @@
         <v>1245</v>
       </c>
       <c r="B1247">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
@@ -10364,7 +10364,7 @@
         <v>1246</v>
       </c>
       <c r="B1248">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -10372,7 +10372,7 @@
         <v>1247</v>
       </c>
       <c r="B1249">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
@@ -10380,7 +10380,7 @@
         <v>1248</v>
       </c>
       <c r="B1250">
-        <v>0.457819</v>
+        <v>0.457835</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
@@ -10388,7 +10388,7 @@
         <v>1249</v>
       </c>
       <c r="B1251">
-        <v>0.4576693</v>
+        <v>0.4576894</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
@@ -10396,7 +10396,7 @@
         <v>1250</v>
       </c>
       <c r="B1252">
-        <v>0.4575195</v>
+        <v>0.4575437</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
@@ -10404,7 +10404,7 @@
         <v>1251</v>
       </c>
       <c r="B1253">
-        <v>0.4573698</v>
+        <v>0.4573981</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
@@ -10412,7 +10412,7 @@
         <v>1252</v>
       </c>
       <c r="B1254">
-        <v>0.4572201</v>
+        <v>0.4572524</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10420,7 +10420,7 @@
         <v>1253</v>
       </c>
       <c r="B1255">
-        <v>0.4570703</v>
+        <v>0.4571068</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
@@ -10428,7 +10428,7 @@
         <v>1254</v>
       </c>
       <c r="B1256">
-        <v>0.4569206</v>
+        <v>0.4569612</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -10436,7 +10436,7 @@
         <v>1255</v>
       </c>
       <c r="B1257">
-        <v>0.4567709</v>
+        <v>0.4568155</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
@@ -10444,7 +10444,7 @@
         <v>1256</v>
       </c>
       <c r="B1258">
-        <v>0.4566211</v>
+        <v>0.4566699</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
@@ -10452,7 +10452,7 @@
         <v>1257</v>
       </c>
       <c r="B1259">
-        <v>0.4564714</v>
+        <v>0.4565243</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -10460,7 +10460,7 @@
         <v>1258</v>
       </c>
       <c r="B1260">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
@@ -10468,7 +10468,7 @@
         <v>1259</v>
       </c>
       <c r="B1261">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
@@ -10476,7 +10476,7 @@
         <v>1260</v>
       </c>
       <c r="B1262">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10484,7 +10484,7 @@
         <v>1261</v>
       </c>
       <c r="B1263">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10492,7 +10492,7 @@
         <v>1262</v>
       </c>
       <c r="B1264">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
@@ -10500,7 +10500,7 @@
         <v>1263</v>
       </c>
       <c r="B1265">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
@@ -10508,7 +10508,7 @@
         <v>1264</v>
       </c>
       <c r="B1266">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10516,7 +10516,7 @@
         <v>1265</v>
       </c>
       <c r="B1267">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
@@ -10524,7 +10524,7 @@
         <v>1266</v>
       </c>
       <c r="B1268">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
@@ -10532,7 +10532,7 @@
         <v>1267</v>
       </c>
       <c r="B1269">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
@@ -10540,7 +10540,7 @@
         <v>1268</v>
       </c>
       <c r="B1270">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
@@ -10548,7 +10548,7 @@
         <v>1269</v>
       </c>
       <c r="B1271">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
@@ -10556,7 +10556,7 @@
         <v>1270</v>
       </c>
       <c r="B1272">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1273" spans="1:2">
@@ -10564,7 +10564,7 @@
         <v>1271</v>
       </c>
       <c r="B1273">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
@@ -10572,7 +10572,7 @@
         <v>1272</v>
       </c>
       <c r="B1274">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
@@ -10580,7 +10580,7 @@
         <v>1273</v>
       </c>
       <c r="B1275">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
@@ -10588,7 +10588,7 @@
         <v>1274</v>
       </c>
       <c r="B1276">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10596,7 +10596,7 @@
         <v>1275</v>
       </c>
       <c r="B1277">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10604,7 +10604,7 @@
         <v>1276</v>
       </c>
       <c r="B1278">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
@@ -10612,7 +10612,7 @@
         <v>1277</v>
       </c>
       <c r="B1279">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
@@ -10620,7 +10620,7 @@
         <v>1278</v>
       </c>
       <c r="B1280">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -10628,7 +10628,7 @@
         <v>1279</v>
       </c>
       <c r="B1281">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10636,7 +10636,7 @@
         <v>1280</v>
       </c>
       <c r="B1282">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -10644,7 +10644,7 @@
         <v>1281</v>
       </c>
       <c r="B1283">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
@@ -10652,7 +10652,7 @@
         <v>1282</v>
       </c>
       <c r="B1284">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -10660,7 +10660,7 @@
         <v>1283</v>
       </c>
       <c r="B1285">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -10668,7 +10668,7 @@
         <v>1284</v>
       </c>
       <c r="B1286">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
@@ -10676,7 +10676,7 @@
         <v>1285</v>
       </c>
       <c r="B1287">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -10684,7 +10684,7 @@
         <v>1286</v>
       </c>
       <c r="B1288">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
@@ -10692,7 +10692,7 @@
         <v>1287</v>
       </c>
       <c r="B1289">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
@@ -10700,7 +10700,7 @@
         <v>1288</v>
       </c>
       <c r="B1290">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
@@ -10708,7 +10708,7 @@
         <v>1289</v>
       </c>
       <c r="B1291">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
@@ -10716,7 +10716,7 @@
         <v>1290</v>
       </c>
       <c r="B1292">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10724,7 +10724,7 @@
         <v>1291</v>
       </c>
       <c r="B1293">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
@@ -10732,7 +10732,7 @@
         <v>1292</v>
       </c>
       <c r="B1294">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -10740,7 +10740,7 @@
         <v>1293</v>
       </c>
       <c r="B1295">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -10748,7 +10748,7 @@
         <v>1294</v>
       </c>
       <c r="B1296">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
@@ -10756,7 +10756,7 @@
         <v>1295</v>
       </c>
       <c r="B1297">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -10764,7 +10764,7 @@
         <v>1296</v>
       </c>
       <c r="B1298">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -10772,7 +10772,7 @@
         <v>1297</v>
       </c>
       <c r="B1299">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
@@ -10780,7 +10780,7 @@
         <v>1298</v>
       </c>
       <c r="B1300">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -10788,7 +10788,7 @@
         <v>1299</v>
       </c>
       <c r="B1301">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
@@ -10796,7 +10796,7 @@
         <v>1300</v>
       </c>
       <c r="B1302">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -10804,7 +10804,7 @@
         <v>1301</v>
       </c>
       <c r="B1303">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10812,7 +10812,7 @@
         <v>1302</v>
       </c>
       <c r="B1304">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -10820,7 +10820,7 @@
         <v>1303</v>
       </c>
       <c r="B1305">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -10828,7 +10828,7 @@
         <v>1304</v>
       </c>
       <c r="B1306">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -10836,7 +10836,7 @@
         <v>1305</v>
       </c>
       <c r="B1307">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10844,7 +10844,7 @@
         <v>1306</v>
       </c>
       <c r="B1308">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
@@ -10852,7 +10852,7 @@
         <v>1307</v>
       </c>
       <c r="B1309">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
@@ -10860,7 +10860,7 @@
         <v>1308</v>
       </c>
       <c r="B1310">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
@@ -10868,7 +10868,7 @@
         <v>1309</v>
       </c>
       <c r="B1311">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
@@ -10876,7 +10876,7 @@
         <v>1310</v>
       </c>
       <c r="B1312">
-        <v>0.4562976</v>
+        <v>0.4563565</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
@@ -10884,7 +10884,7 @@
         <v>1311</v>
       </c>
       <c r="B1313">
-        <v>0.4558774</v>
+        <v>0.4559509</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
@@ -10892,7 +10892,7 @@
         <v>1312</v>
       </c>
       <c r="B1314">
-        <v>0.4554571</v>
+        <v>0.4555453</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
@@ -10900,7 +10900,7 @@
         <v>1313</v>
       </c>
       <c r="B1315">
-        <v>0.4550369</v>
+        <v>0.4551398</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -10908,7 +10908,7 @@
         <v>1314</v>
       </c>
       <c r="B1316">
-        <v>0.4546167</v>
+        <v>0.4547342</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -10916,7 +10916,7 @@
         <v>1315</v>
       </c>
       <c r="B1317">
-        <v>0.4541964</v>
+        <v>0.4543286</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
@@ -10924,7 +10924,7 @@
         <v>1316</v>
       </c>
       <c r="B1318">
-        <v>0.4537762</v>
+        <v>0.4539231</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
@@ -10932,7 +10932,7 @@
         <v>1317</v>
       </c>
       <c r="B1319">
-        <v>0.4533559</v>
+        <v>0.4535175</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
@@ -10940,7 +10940,7 @@
         <v>1318</v>
       </c>
       <c r="B1320">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -10948,7 +10948,7 @@
         <v>1319</v>
       </c>
       <c r="B1321">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
@@ -10956,7 +10956,7 @@
         <v>1320</v>
       </c>
       <c r="B1322">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
@@ -10964,7 +10964,7 @@
         <v>1321</v>
       </c>
       <c r="B1323">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
@@ -10972,7 +10972,7 @@
         <v>1322</v>
       </c>
       <c r="B1324">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -10980,7 +10980,7 @@
         <v>1323</v>
       </c>
       <c r="B1325">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
@@ -10988,7 +10988,7 @@
         <v>1324</v>
       </c>
       <c r="B1326">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
@@ -10996,7 +10996,7 @@
         <v>1325</v>
       </c>
       <c r="B1327">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
@@ -11004,7 +11004,7 @@
         <v>1326</v>
       </c>
       <c r="B1328">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
@@ -11012,7 +11012,7 @@
         <v>1327</v>
       </c>
       <c r="B1329">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -11020,7 +11020,7 @@
         <v>1328</v>
       </c>
       <c r="B1330">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
@@ -11028,7 +11028,7 @@
         <v>1329</v>
       </c>
       <c r="B1331">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
@@ -11036,7 +11036,7 @@
         <v>1330</v>
       </c>
       <c r="B1332">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -11044,7 +11044,7 @@
         <v>1331</v>
       </c>
       <c r="B1333">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -11052,7 +11052,7 @@
         <v>1332</v>
       </c>
       <c r="B1334">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
@@ -11060,7 +11060,7 @@
         <v>1333</v>
       </c>
       <c r="B1335">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -11068,7 +11068,7 @@
         <v>1334</v>
       </c>
       <c r="B1336">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -11076,7 +11076,7 @@
         <v>1335</v>
       </c>
       <c r="B1337">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -11084,7 +11084,7 @@
         <v>1336</v>
       </c>
       <c r="B1338">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
@@ -11092,7 +11092,7 @@
         <v>1337</v>
       </c>
       <c r="B1339">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
@@ -11100,7 +11100,7 @@
         <v>1338</v>
       </c>
       <c r="B1340">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
@@ -11108,7 +11108,7 @@
         <v>1339</v>
       </c>
       <c r="B1341">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -11116,7 +11116,7 @@
         <v>1340</v>
       </c>
       <c r="B1342">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
@@ -11124,7 +11124,7 @@
         <v>1341</v>
       </c>
       <c r="B1343">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
@@ -11132,7 +11132,7 @@
         <v>1342</v>
       </c>
       <c r="B1344">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
@@ -11140,7 +11140,7 @@
         <v>1343</v>
       </c>
       <c r="B1345">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
@@ -11148,7 +11148,7 @@
         <v>1344</v>
       </c>
       <c r="B1346">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
@@ -11156,7 +11156,7 @@
         <v>1345</v>
       </c>
       <c r="B1347">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
@@ -11164,7 +11164,7 @@
         <v>1346</v>
       </c>
       <c r="B1348">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -11172,7 +11172,7 @@
         <v>1347</v>
       </c>
       <c r="B1349">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
@@ -11180,7 +11180,7 @@
         <v>1348</v>
       </c>
       <c r="B1350">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
@@ -11188,7 +11188,7 @@
         <v>1349</v>
       </c>
       <c r="B1351">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
@@ -11196,7 +11196,7 @@
         <v>1350</v>
       </c>
       <c r="B1352">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
@@ -11204,7 +11204,7 @@
         <v>1351</v>
       </c>
       <c r="B1353">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
@@ -11212,7 +11212,7 @@
         <v>1352</v>
       </c>
       <c r="B1354">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
@@ -11220,7 +11220,7 @@
         <v>1353</v>
       </c>
       <c r="B1355">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
@@ -11228,7 +11228,7 @@
         <v>1354</v>
       </c>
       <c r="B1356">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
@@ -11236,7 +11236,7 @@
         <v>1355</v>
       </c>
       <c r="B1357">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
@@ -11244,7 +11244,7 @@
         <v>1356</v>
       </c>
       <c r="B1358">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
@@ -11252,7 +11252,7 @@
         <v>1357</v>
       </c>
       <c r="B1359">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11260,7 +11260,7 @@
         <v>1358</v>
       </c>
       <c r="B1360">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11268,7 +11268,7 @@
         <v>1359</v>
       </c>
       <c r="B1361">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
@@ -11276,7 +11276,7 @@
         <v>1360</v>
       </c>
       <c r="B1362">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
@@ -11284,7 +11284,7 @@
         <v>1361</v>
       </c>
       <c r="B1363">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
@@ -11292,7 +11292,7 @@
         <v>1362</v>
       </c>
       <c r="B1364">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
@@ -11300,7 +11300,7 @@
         <v>1363</v>
       </c>
       <c r="B1365">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
@@ -11308,7 +11308,7 @@
         <v>1364</v>
       </c>
       <c r="B1366">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
@@ -11316,7 +11316,7 @@
         <v>1365</v>
       </c>
       <c r="B1367">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
@@ -11324,7 +11324,7 @@
         <v>1366</v>
       </c>
       <c r="B1368">
-        <v>0.4524271</v>
+        <v>0.4526325</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
@@ -11332,7 +11332,7 @@
         <v>1367</v>
       </c>
       <c r="B1369">
-        <v>0.4515866</v>
+        <v>0.4518388</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11340,7 +11340,7 @@
         <v>1368</v>
       </c>
       <c r="B1370">
-        <v>0.4507462</v>
+        <v>0.4510451</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11348,7 +11348,7 @@
         <v>1369</v>
       </c>
       <c r="B1371">
-        <v>0.4499057</v>
+        <v>0.4502514</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
@@ -11356,7 +11356,7 @@
         <v>1370</v>
       </c>
       <c r="B1372">
-        <v>0.4490653</v>
+        <v>0.4494576</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
@@ -11364,7 +11364,7 @@
         <v>1371</v>
       </c>
       <c r="B1373">
-        <v>0.4482248</v>
+        <v>0.4486639</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11372,7 +11372,7 @@
         <v>1372</v>
       </c>
       <c r="B1374">
-        <v>0.4473844</v>
+        <v>0.4478702</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11380,7 +11380,7 @@
         <v>1373</v>
       </c>
       <c r="B1375">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -11388,7 +11388,7 @@
         <v>1374</v>
       </c>
       <c r="B1376">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -11396,7 +11396,7 @@
         <v>1375</v>
       </c>
       <c r="B1377">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
@@ -11404,7 +11404,7 @@
         <v>1376</v>
       </c>
       <c r="B1378">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -11412,7 +11412,7 @@
         <v>1377</v>
       </c>
       <c r="B1379">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -11420,7 +11420,7 @@
         <v>1378</v>
       </c>
       <c r="B1380">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
@@ -11428,7 +11428,7 @@
         <v>1379</v>
       </c>
       <c r="B1381">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
@@ -11436,7 +11436,7 @@
         <v>1380</v>
       </c>
       <c r="B1382">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11444,7 +11444,7 @@
         <v>1381</v>
       </c>
       <c r="B1383">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
@@ -11452,7 +11452,7 @@
         <v>1382</v>
       </c>
       <c r="B1384">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -11460,7 +11460,7 @@
         <v>1383</v>
       </c>
       <c r="B1385">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
@@ -11468,7 +11468,7 @@
         <v>1384</v>
       </c>
       <c r="B1386">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
@@ -11476,7 +11476,7 @@
         <v>1385</v>
       </c>
       <c r="B1387">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
@@ -11484,7 +11484,7 @@
         <v>1386</v>
       </c>
       <c r="B1388">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -11492,7 +11492,7 @@
         <v>1387</v>
       </c>
       <c r="B1389">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
@@ -11500,7 +11500,7 @@
         <v>1388</v>
       </c>
       <c r="B1390">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
@@ -11508,7 +11508,7 @@
         <v>1389</v>
       </c>
       <c r="B1391">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
@@ -11516,7 +11516,7 @@
         <v>1390</v>
       </c>
       <c r="B1392">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
@@ -11524,7 +11524,7 @@
         <v>1391</v>
       </c>
       <c r="B1393">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -11532,7 +11532,7 @@
         <v>1392</v>
       </c>
       <c r="B1394">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
@@ -11540,7 +11540,7 @@
         <v>1393</v>
       </c>
       <c r="B1395">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -11548,7 +11548,7 @@
         <v>1394</v>
       </c>
       <c r="B1396">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
@@ -11556,7 +11556,7 @@
         <v>1395</v>
       </c>
       <c r="B1397">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
@@ -11564,7 +11564,7 @@
         <v>1396</v>
       </c>
       <c r="B1398">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
@@ -11572,7 +11572,7 @@
         <v>1397</v>
       </c>
       <c r="B1399">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11580,7 +11580,7 @@
         <v>1398</v>
       </c>
       <c r="B1400">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
@@ -11588,7 +11588,7 @@
         <v>1399</v>
       </c>
       <c r="B1401">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
@@ -11596,7 +11596,7 @@
         <v>1400</v>
       </c>
       <c r="B1402">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
@@ -11604,7 +11604,7 @@
         <v>1401</v>
       </c>
       <c r="B1403">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
@@ -11612,7 +11612,7 @@
         <v>1402</v>
       </c>
       <c r="B1404">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
@@ -11620,7 +11620,7 @@
         <v>1403</v>
       </c>
       <c r="B1405">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
@@ -11628,7 +11628,7 @@
         <v>1404</v>
       </c>
       <c r="B1406">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
@@ -11636,7 +11636,7 @@
         <v>1405</v>
       </c>
       <c r="B1407">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -11644,7 +11644,7 @@
         <v>1406</v>
       </c>
       <c r="B1408">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11652,7 +11652,7 @@
         <v>1407</v>
       </c>
       <c r="B1409">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
@@ -11660,7 +11660,7 @@
         <v>1408</v>
       </c>
       <c r="B1410">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
@@ -11668,7 +11668,7 @@
         <v>1409</v>
       </c>
       <c r="B1411">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
@@ -11676,7 +11676,7 @@
         <v>1410</v>
       </c>
       <c r="B1412">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
@@ -11684,7 +11684,7 @@
         <v>1411</v>
       </c>
       <c r="B1413">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
@@ -11692,7 +11692,7 @@
         <v>1412</v>
       </c>
       <c r="B1414">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
@@ -11700,7 +11700,7 @@
         <v>1413</v>
       </c>
       <c r="B1415">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
@@ -11708,7 +11708,7 @@
         <v>1414</v>
       </c>
       <c r="B1416">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
@@ -11716,7 +11716,7 @@
         <v>1415</v>
       </c>
       <c r="B1417">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
@@ -11724,7 +11724,7 @@
         <v>1416</v>
       </c>
       <c r="B1418">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
@@ -11732,7 +11732,7 @@
         <v>1417</v>
       </c>
       <c r="B1419">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11740,7 +11740,7 @@
         <v>1418</v>
       </c>
       <c r="B1420">
-        <v>0.4453239</v>
+        <v>0.4459714</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
@@ -11748,7 +11748,7 @@
         <v>1419</v>
       </c>
       <c r="B1421">
-        <v>0.4438863</v>
+        <v>0.4446673</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
@@ -11756,7 +11756,7 @@
         <v>1420</v>
       </c>
       <c r="B1422">
-        <v>0.4424487</v>
+        <v>0.4433632</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
@@ -11764,7 +11764,7 @@
         <v>1421</v>
       </c>
       <c r="B1423">
-        <v>0.4410111</v>
+        <v>0.4420591</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
@@ -11772,7 +11772,7 @@
         <v>1422</v>
       </c>
       <c r="B1424">
-        <v>0.4395735</v>
+        <v>0.440755</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
@@ -11780,7 +11780,7 @@
         <v>1423</v>
       </c>
       <c r="B1425">
-        <v>0.4381359</v>
+        <v>0.4394509</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -11788,7 +11788,7 @@
         <v>1424</v>
       </c>
       <c r="B1426">
-        <v>0.4366984</v>
+        <v>0.4381468</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -11796,7 +11796,7 @@
         <v>1425</v>
       </c>
       <c r="B1427">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -11804,7 +11804,7 @@
         <v>1426</v>
       </c>
       <c r="B1428">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
@@ -11812,7 +11812,7 @@
         <v>1427</v>
       </c>
       <c r="B1429">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
@@ -11820,7 +11820,7 @@
         <v>1428</v>
       </c>
       <c r="B1430">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
@@ -11828,7 +11828,7 @@
         <v>1429</v>
       </c>
       <c r="B1431">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
@@ -11836,7 +11836,7 @@
         <v>1430</v>
       </c>
       <c r="B1432">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
@@ -11844,7 +11844,7 @@
         <v>1431</v>
       </c>
       <c r="B1433">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
@@ -11852,7 +11852,7 @@
         <v>1432</v>
       </c>
       <c r="B1434">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
@@ -11860,7 +11860,7 @@
         <v>1433</v>
       </c>
       <c r="B1435">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
@@ -11868,7 +11868,7 @@
         <v>1434</v>
       </c>
       <c r="B1436">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
@@ -11876,7 +11876,7 @@
         <v>1435</v>
       </c>
       <c r="B1437">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
@@ -11884,7 +11884,7 @@
         <v>1436</v>
       </c>
       <c r="B1438">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
@@ -11892,7 +11892,7 @@
         <v>1437</v>
       </c>
       <c r="B1439">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
@@ -11900,7 +11900,7 @@
         <v>1438</v>
       </c>
       <c r="B1440">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
@@ -11908,7 +11908,7 @@
         <v>1439</v>
       </c>
       <c r="B1441">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
@@ -11916,7 +11916,7 @@
         <v>1440</v>
       </c>
       <c r="B1442">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -11924,7 +11924,7 @@
         <v>1441</v>
       </c>
       <c r="B1443">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -11932,7 +11932,7 @@
         <v>1442</v>
       </c>
       <c r="B1444">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -11940,7 +11940,7 @@
         <v>1443</v>
       </c>
       <c r="B1445">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
@@ -11948,7 +11948,7 @@
         <v>1444</v>
       </c>
       <c r="B1446">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -11956,7 +11956,7 @@
         <v>1445</v>
       </c>
       <c r="B1447">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11964,7 +11964,7 @@
         <v>1446</v>
       </c>
       <c r="B1448">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -11972,7 +11972,7 @@
         <v>1447</v>
       </c>
       <c r="B1449">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
@@ -11980,7 +11980,7 @@
         <v>1448</v>
       </c>
       <c r="B1450">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
@@ -11988,7 +11988,7 @@
         <v>1449</v>
       </c>
       <c r="B1451">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
@@ -11996,7 +11996,7 @@
         <v>1450</v>
       </c>
       <c r="B1452">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
@@ -12004,7 +12004,7 @@
         <v>1451</v>
       </c>
       <c r="B1453">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
@@ -12012,7 +12012,7 @@
         <v>1452</v>
       </c>
       <c r="B1454">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12020,7 +12020,7 @@
         <v>1453</v>
       </c>
       <c r="B1455">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
@@ -12028,7 +12028,7 @@
         <v>1454</v>
       </c>
       <c r="B1456">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
@@ -12036,7 +12036,7 @@
         <v>1455</v>
       </c>
       <c r="B1457">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
@@ -12044,7 +12044,7 @@
         <v>1456</v>
       </c>
       <c r="B1458">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
@@ -12052,7 +12052,7 @@
         <v>1457</v>
       </c>
       <c r="B1459">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12060,7 +12060,7 @@
         <v>1458</v>
       </c>
       <c r="B1460">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
@@ -12068,7 +12068,7 @@
         <v>1459</v>
       </c>
       <c r="B1461">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
@@ -12076,7 +12076,7 @@
         <v>1460</v>
       </c>
       <c r="B1462">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
@@ -12084,7 +12084,7 @@
         <v>1461</v>
       </c>
       <c r="B1463">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
@@ -12092,7 +12092,7 @@
         <v>1462</v>
       </c>
       <c r="B1464">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
@@ -12100,7 +12100,7 @@
         <v>1463</v>
       </c>
       <c r="B1465">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12108,7 +12108,7 @@
         <v>1464</v>
       </c>
       <c r="B1466">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
@@ -12116,7 +12116,7 @@
         <v>1465</v>
       </c>
       <c r="B1467">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
@@ -12124,7 +12124,7 @@
         <v>1466</v>
       </c>
       <c r="B1468">
-        <v>0.4351538</v>
+        <v>0.4368145</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12132,7 +12132,7 @@
         <v>1467</v>
       </c>
       <c r="B1469">
-        <v>0.4328273</v>
+        <v>0.434839</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12140,7 +12140,7 @@
         <v>1468</v>
       </c>
       <c r="B1470">
-        <v>0.4305009</v>
+        <v>0.4328634</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
@@ -12148,7 +12148,7 @@
         <v>1469</v>
       </c>
       <c r="B1471">
-        <v>0.4281744</v>
+        <v>0.4308879</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
@@ -12156,7 +12156,7 @@
         <v>1470</v>
       </c>
       <c r="B1472">
-        <v>0.425848</v>
+        <v>0.4289124</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
@@ -12164,7 +12164,7 @@
         <v>1471</v>
       </c>
       <c r="B1473">
-        <v>0.4235215</v>
+        <v>0.4269368</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
@@ -12172,7 +12172,7 @@
         <v>1472</v>
       </c>
       <c r="B1474">
-        <v>0.421195</v>
+        <v>0.4249613</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
@@ -12180,7 +12180,7 @@
         <v>1473</v>
       </c>
       <c r="B1475">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
@@ -12188,7 +12188,7 @@
         <v>1474</v>
       </c>
       <c r="B1476">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
@@ -12196,7 +12196,7 @@
         <v>1475</v>
       </c>
       <c r="B1477">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12204,7 +12204,7 @@
         <v>1476</v>
       </c>
       <c r="B1478">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12212,7 +12212,7 @@
         <v>1477</v>
       </c>
       <c r="B1479">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
@@ -12220,7 +12220,7 @@
         <v>1478</v>
       </c>
       <c r="B1480">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12228,7 +12228,7 @@
         <v>1479</v>
       </c>
       <c r="B1481">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
@@ -12236,7 +12236,7 @@
         <v>1480</v>
       </c>
       <c r="B1482">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
@@ -12244,7 +12244,7 @@
         <v>1481</v>
       </c>
       <c r="B1483">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
@@ -12252,7 +12252,7 @@
         <v>1482</v>
       </c>
       <c r="B1484">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12260,7 +12260,7 @@
         <v>1483</v>
       </c>
       <c r="B1485">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
@@ -12268,7 +12268,7 @@
         <v>1484</v>
       </c>
       <c r="B1486">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
@@ -12276,7 +12276,7 @@
         <v>1485</v>
       </c>
       <c r="B1487">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
@@ -12284,7 +12284,7 @@
         <v>1486</v>
       </c>
       <c r="B1488">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
@@ -12292,7 +12292,7 @@
         <v>1487</v>
       </c>
       <c r="B1489">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
@@ -12300,7 +12300,7 @@
         <v>1488</v>
       </c>
       <c r="B1490">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
@@ -12308,7 +12308,7 @@
         <v>1489</v>
       </c>
       <c r="B1491">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -12316,7 +12316,7 @@
         <v>1490</v>
       </c>
       <c r="B1492">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -12324,7 +12324,7 @@
         <v>1491</v>
       </c>
       <c r="B1493">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
@@ -12332,7 +12332,7 @@
         <v>1492</v>
       </c>
       <c r="B1494">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
@@ -12340,7 +12340,7 @@
         <v>1493</v>
       </c>
       <c r="B1495">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
@@ -12348,7 +12348,7 @@
         <v>1494</v>
       </c>
       <c r="B1496">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
@@ -12356,7 +12356,7 @@
         <v>1495</v>
       </c>
       <c r="B1497">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
@@ -12364,7 +12364,7 @@
         <v>1496</v>
       </c>
       <c r="B1498">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
@@ -12372,7 +12372,7 @@
         <v>1497</v>
       </c>
       <c r="B1499">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
@@ -12380,7 +12380,7 @@
         <v>1498</v>
       </c>
       <c r="B1500">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
@@ -12388,7 +12388,7 @@
         <v>1499</v>
       </c>
       <c r="B1501">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
@@ -12396,7 +12396,7 @@
         <v>1500</v>
       </c>
       <c r="B1502">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
@@ -12404,7 +12404,7 @@
         <v>1501</v>
       </c>
       <c r="B1503">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
@@ -12412,7 +12412,7 @@
         <v>1502</v>
       </c>
       <c r="B1504">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
@@ -12420,7 +12420,7 @@
         <v>1503</v>
       </c>
       <c r="B1505">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
@@ -12428,7 +12428,7 @@
         <v>1504</v>
       </c>
       <c r="B1506">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
@@ -12436,7 +12436,7 @@
         <v>1505</v>
       </c>
       <c r="B1507">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
@@ -12444,7 +12444,7 @@
         <v>1506</v>
       </c>
       <c r="B1508">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
@@ -12452,7 +12452,7 @@
         <v>1507</v>
       </c>
       <c r="B1509">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
@@ -12460,7 +12460,7 @@
         <v>1508</v>
       </c>
       <c r="B1510">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
@@ -12468,7 +12468,7 @@
         <v>1509</v>
       </c>
       <c r="B1511">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
@@ -12476,7 +12476,7 @@
         <v>1510</v>
       </c>
       <c r="B1512">
-        <v>0.4200701</v>
+        <v>0.4240777</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
@@ -12484,7 +12484,7 @@
         <v>1511</v>
       </c>
       <c r="B1513">
-        <v>0.4163809</v>
+        <v>0.4212256</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
@@ -12492,7 +12492,7 @@
         <v>1512</v>
       </c>
       <c r="B1514">
-        <v>0.4126916</v>
+        <v>0.4183734</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
@@ -12500,7 +12500,7 @@
         <v>1513</v>
       </c>
       <c r="B1515">
-        <v>0.4090024</v>
+        <v>0.4155212</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
@@ -12508,7 +12508,7 @@
         <v>1514</v>
       </c>
       <c r="B1516">
-        <v>0.4053131</v>
+        <v>0.4126691</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
@@ -12516,7 +12516,7 @@
         <v>1515</v>
       </c>
       <c r="B1517">
-        <v>0.4016238</v>
+        <v>0.4098169</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
@@ -12524,7 +12524,7 @@
         <v>1516</v>
       </c>
       <c r="B1518">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
@@ -12532,7 +12532,7 @@
         <v>1517</v>
       </c>
       <c r="B1519">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
@@ -12540,7 +12540,7 @@
         <v>1518</v>
       </c>
       <c r="B1520">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
@@ -12548,7 +12548,7 @@
         <v>1519</v>
       </c>
       <c r="B1521">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
@@ -12556,7 +12556,7 @@
         <v>1520</v>
       </c>
       <c r="B1522">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
@@ -12564,7 +12564,7 @@
         <v>1521</v>
       </c>
       <c r="B1523">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
@@ -12572,7 +12572,7 @@
         <v>1522</v>
       </c>
       <c r="B1524">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
@@ -12580,7 +12580,7 @@
         <v>1523</v>
       </c>
       <c r="B1525">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
@@ -12588,7 +12588,7 @@
         <v>1524</v>
       </c>
       <c r="B1526">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
@@ -12596,7 +12596,7 @@
         <v>1525</v>
       </c>
       <c r="B1527">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
@@ -12604,7 +12604,7 @@
         <v>1526</v>
       </c>
       <c r="B1528">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
@@ -12612,7 +12612,7 @@
         <v>1527</v>
       </c>
       <c r="B1529">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
@@ -12620,7 +12620,7 @@
         <v>1528</v>
       </c>
       <c r="B1530">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
@@ -12628,7 +12628,7 @@
         <v>1529</v>
       </c>
       <c r="B1531">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
@@ -12636,7 +12636,7 @@
         <v>1530</v>
       </c>
       <c r="B1532">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
@@ -12644,7 +12644,7 @@
         <v>1531</v>
       </c>
       <c r="B1533">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12652,7 +12652,7 @@
         <v>1532</v>
       </c>
       <c r="B1534">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
@@ -12660,7 +12660,7 @@
         <v>1533</v>
       </c>
       <c r="B1535">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
@@ -12668,7 +12668,7 @@
         <v>1534</v>
       </c>
       <c r="B1536">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
@@ -12676,7 +12676,7 @@
         <v>1535</v>
       </c>
       <c r="B1537">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
@@ -12684,7 +12684,7 @@
         <v>1536</v>
       </c>
       <c r="B1538">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
@@ -12692,7 +12692,7 @@
         <v>1537</v>
       </c>
       <c r="B1539">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
@@ -12700,7 +12700,7 @@
         <v>1538</v>
       </c>
       <c r="B1540">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12708,7 +12708,7 @@
         <v>1539</v>
       </c>
       <c r="B1541">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
@@ -12716,7 +12716,7 @@
         <v>1540</v>
       </c>
       <c r="B1542">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
@@ -12724,7 +12724,7 @@
         <v>1541</v>
       </c>
       <c r="B1543">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
@@ -12732,7 +12732,7 @@
         <v>1542</v>
       </c>
       <c r="B1544">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
@@ -12740,7 +12740,7 @@
         <v>1543</v>
       </c>
       <c r="B1545">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -12748,7 +12748,7 @@
         <v>1544</v>
       </c>
       <c r="B1546">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
@@ -12756,7 +12756,7 @@
         <v>1545</v>
       </c>
       <c r="B1547">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
@@ -12764,7 +12764,7 @@
         <v>1546</v>
       </c>
       <c r="B1548">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
@@ -12772,7 +12772,7 @@
         <v>1547</v>
       </c>
       <c r="B1549">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
@@ -12780,7 +12780,7 @@
         <v>1548</v>
       </c>
       <c r="B1550">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12788,7 +12788,7 @@
         <v>1549</v>
       </c>
       <c r="B1551">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12796,7 +12796,7 @@
         <v>1550</v>
       </c>
       <c r="B1552">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
@@ -12804,7 +12804,7 @@
         <v>1551</v>
       </c>
       <c r="B1553">
-        <v>0.396107</v>
+        <v>0.4057758</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
@@ -12812,7 +12812,7 @@
         <v>1552</v>
       </c>
       <c r="B1554">
-        <v>0.390729</v>
+        <v>0.402043</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
@@ -12820,7 +12820,7 @@
         <v>1553</v>
       </c>
       <c r="B1555">
-        <v>0.385351</v>
+        <v>0.3983102</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
@@ -12828,7 +12828,7 @@
         <v>1554</v>
       </c>
       <c r="B1556">
-        <v>0.3799729</v>
+        <v>0.3945774</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
@@ -12836,7 +12836,7 @@
         <v>1555</v>
       </c>
       <c r="B1557">
-        <v>0.3745949</v>
+        <v>0.3908445</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
@@ -12844,7 +12844,7 @@
         <v>1556</v>
       </c>
       <c r="B1558">
-        <v>0.3692169</v>
+        <v>0.3871117</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
@@ -12852,7 +12852,7 @@
         <v>1557</v>
       </c>
       <c r="B1559">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
@@ -12860,7 +12860,7 @@
         <v>1558</v>
       </c>
       <c r="B1560">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
@@ -12868,7 +12868,7 @@
         <v>1559</v>
       </c>
       <c r="B1561">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -12876,7 +12876,7 @@
         <v>1560</v>
       </c>
       <c r="B1562">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12884,7 +12884,7 @@
         <v>1561</v>
       </c>
       <c r="B1563">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
@@ -12892,7 +12892,7 @@
         <v>1562</v>
       </c>
       <c r="B1564">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -12900,7 +12900,7 @@
         <v>1563</v>
       </c>
       <c r="B1565">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
@@ -12908,7 +12908,7 @@
         <v>1564</v>
       </c>
       <c r="B1566">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -12916,7 +12916,7 @@
         <v>1565</v>
       </c>
       <c r="B1567">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
@@ -12924,7 +12924,7 @@
         <v>1566</v>
       </c>
       <c r="B1568">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
@@ -12932,7 +12932,7 @@
         <v>1567</v>
       </c>
       <c r="B1569">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
@@ -12940,7 +12940,7 @@
         <v>1568</v>
       </c>
       <c r="B1570">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
@@ -12948,7 +12948,7 @@
         <v>1569</v>
       </c>
       <c r="B1571">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1572" spans="1:2">
@@ -12956,7 +12956,7 @@
         <v>1570</v>
       </c>
       <c r="B1572">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
@@ -12964,7 +12964,7 @@
         <v>1571</v>
       </c>
       <c r="B1573">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
@@ -12972,7 +12972,7 @@
         <v>1572</v>
       </c>
       <c r="B1574">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
@@ -12980,7 +12980,7 @@
         <v>1573</v>
       </c>
       <c r="B1575">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1576" spans="1:2">
@@ -12988,7 +12988,7 @@
         <v>1574</v>
       </c>
       <c r="B1576">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
@@ -12996,7 +12996,7 @@
         <v>1575</v>
       </c>
       <c r="B1577">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1578" spans="1:2">
@@ -13004,7 +13004,7 @@
         <v>1576</v>
       </c>
       <c r="B1578">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1579" spans="1:2">
@@ -13012,7 +13012,7 @@
         <v>1577</v>
       </c>
       <c r="B1579">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1580" spans="1:2">
@@ -13020,7 +13020,7 @@
         <v>1578</v>
       </c>
       <c r="B1580">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1581" spans="1:2">
@@ -13028,7 +13028,7 @@
         <v>1579</v>
       </c>
       <c r="B1581">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1582" spans="1:2">
@@ -13036,7 +13036,7 @@
         <v>1580</v>
       </c>
       <c r="B1582">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1583" spans="1:2">
@@ -13044,7 +13044,7 @@
         <v>1581</v>
       </c>
       <c r="B1583">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1584" spans="1:2">
@@ -13052,7 +13052,7 @@
         <v>1582</v>
       </c>
       <c r="B1584">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
@@ -13060,7 +13060,7 @@
         <v>1583</v>
       </c>
       <c r="B1585">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1586" spans="1:2">
@@ -13068,7 +13068,7 @@
         <v>1584</v>
       </c>
       <c r="B1586">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1587" spans="1:2">
@@ -13076,7 +13076,7 @@
         <v>1585</v>
       </c>
       <c r="B1587">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13084,7 +13084,7 @@
         <v>1586</v>
       </c>
       <c r="B1588">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1589" spans="1:2">
@@ -13092,7 +13092,7 @@
         <v>1587</v>
       </c>
       <c r="B1589">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1590" spans="1:2">
@@ -13100,7 +13100,7 @@
         <v>1588</v>
       </c>
       <c r="B1590">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1591" spans="1:2">
@@ -13108,7 +13108,7 @@
         <v>1589</v>
       </c>
       <c r="B1591">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13116,7 +13116,7 @@
         <v>1590</v>
       </c>
       <c r="B1592">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13124,7 +13124,7 @@
         <v>1591</v>
       </c>
       <c r="B1593">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
@@ -13132,7 +13132,7 @@
         <v>1592</v>
       </c>
       <c r="B1594">
-        <v>0.3627649</v>
+        <v>0.3829442</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
@@ -13140,7 +13140,7 @@
         <v>1593</v>
       </c>
       <c r="B1595">
-        <v>0.3561296</v>
+        <v>0.3787155</v>
       </c>
     </row>
     <row r="1596" spans="1:2">
@@ -13148,7 +13148,7 @@
         <v>1594</v>
       </c>
       <c r="B1596">
-        <v>0.3494942</v>
+        <v>0.3744868</v>
       </c>
     </row>
     <row r="1597" spans="1:2">
@@ -13156,7 +13156,7 @@
         <v>1595</v>
       </c>
       <c r="B1597">
-        <v>0.3428589</v>
+        <v>0.3702581</v>
       </c>
     </row>
     <row r="1598" spans="1:2">
@@ -13164,7 +13164,7 @@
         <v>1596</v>
       </c>
       <c r="B1598">
-        <v>0.3362236</v>
+        <v>0.3660294</v>
       </c>
     </row>
     <row r="1599" spans="1:2">
@@ -13172,7 +13172,7 @@
         <v>1597</v>
       </c>
       <c r="B1599">
-        <v>0.3295882</v>
+        <v>0.3618007</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
@@ -13180,7 +13180,7 @@
         <v>1598</v>
       </c>
       <c r="B1600">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
@@ -13188,7 +13188,7 @@
         <v>1599</v>
       </c>
       <c r="B1601">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13196,7 +13196,7 @@
         <v>1600</v>
       </c>
       <c r="B1602">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
@@ -13204,7 +13204,7 @@
         <v>1601</v>
       </c>
       <c r="B1603">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1604" spans="1:2">
@@ -13212,7 +13212,7 @@
         <v>1602</v>
       </c>
       <c r="B1604">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
@@ -13220,7 +13220,7 @@
         <v>1603</v>
       </c>
       <c r="B1605">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1606" spans="1:2">
@@ -13228,7 +13228,7 @@
         <v>1604</v>
       </c>
       <c r="B1606">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
@@ -13236,7 +13236,7 @@
         <v>1605</v>
       </c>
       <c r="B1607">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -13244,7 +13244,7 @@
         <v>1606</v>
       </c>
       <c r="B1608">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1609" spans="1:2">
@@ -13252,7 +13252,7 @@
         <v>1607</v>
       </c>
       <c r="B1609">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1610" spans="1:2">
@@ -13260,7 +13260,7 @@
         <v>1608</v>
       </c>
       <c r="B1610">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1611" spans="1:2">
@@ -13268,7 +13268,7 @@
         <v>1609</v>
       </c>
       <c r="B1611">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
@@ -13276,7 +13276,7 @@
         <v>1610</v>
       </c>
       <c r="B1612">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1613" spans="1:2">
@@ -13284,7 +13284,7 @@
         <v>1611</v>
       </c>
       <c r="B1613">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1614" spans="1:2">
@@ -13292,7 +13292,7 @@
         <v>1612</v>
       </c>
       <c r="B1614">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13300,7 +13300,7 @@
         <v>1613</v>
       </c>
       <c r="B1615">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1616" spans="1:2">
@@ -13308,7 +13308,7 @@
         <v>1614</v>
       </c>
       <c r="B1616">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13316,7 +13316,7 @@
         <v>1615</v>
       </c>
       <c r="B1617">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13324,7 +13324,7 @@
         <v>1616</v>
       </c>
       <c r="B1618">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13332,7 +13332,7 @@
         <v>1617</v>
       </c>
       <c r="B1619">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13340,7 +13340,7 @@
         <v>1618</v>
       </c>
       <c r="B1620">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
@@ -13348,7 +13348,7 @@
         <v>1619</v>
       </c>
       <c r="B1621">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1622" spans="1:2">
@@ -13356,7 +13356,7 @@
         <v>1620</v>
       </c>
       <c r="B1622">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1623" spans="1:2">
@@ -13364,7 +13364,7 @@
         <v>1621</v>
       </c>
       <c r="B1623">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1624" spans="1:2">
@@ -13372,7 +13372,7 @@
         <v>1622</v>
       </c>
       <c r="B1624">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13380,7 +13380,7 @@
         <v>1623</v>
       </c>
       <c r="B1625">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -13388,7 +13388,7 @@
         <v>1624</v>
       </c>
       <c r="B1626">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13396,7 +13396,7 @@
         <v>1625</v>
       </c>
       <c r="B1627">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -13404,7 +13404,7 @@
         <v>1626</v>
       </c>
       <c r="B1628">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13412,7 +13412,7 @@
         <v>1627</v>
       </c>
       <c r="B1629">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1630" spans="1:2">
@@ -13420,7 +13420,7 @@
         <v>1628</v>
       </c>
       <c r="B1630">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13428,7 +13428,7 @@
         <v>1629</v>
       </c>
       <c r="B1631">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13436,7 +13436,7 @@
         <v>1630</v>
       </c>
       <c r="B1632">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1633" spans="1:2">
@@ -13444,7 +13444,7 @@
         <v>1631</v>
       </c>
       <c r="B1633">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1634" spans="1:2">
@@ -13452,7 +13452,7 @@
         <v>1632</v>
       </c>
       <c r="B1634">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1635" spans="1:2">
@@ -13460,7 +13460,7 @@
         <v>1633</v>
       </c>
       <c r="B1635">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1636" spans="1:2">
@@ -13468,7 +13468,7 @@
         <v>1634</v>
       </c>
       <c r="B1636">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13476,7 +13476,7 @@
         <v>1635</v>
       </c>
       <c r="B1637">
-        <v>0.3270342</v>
+        <v>0.3601806</v>
       </c>
     </row>
     <row r="1638" spans="1:2">
@@ -13484,7 +13484,7 @@
         <v>1636</v>
       </c>
       <c r="B1638">
-        <v>0.3196027</v>
+        <v>0.3554993</v>
       </c>
     </row>
     <row r="1639" spans="1:2">
@@ -13492,7 +13492,7 @@
         <v>1637</v>
       </c>
       <c r="B1639">
-        <v>0.3121712</v>
+        <v>0.3508181</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
@@ -13500,7 +13500,7 @@
         <v>1638</v>
       </c>
       <c r="B1640">
-        <v>0.3047397</v>
+        <v>0.3461368</v>
       </c>
     </row>
     <row r="1641" spans="1:2">
@@ -13508,7 +13508,7 @@
         <v>1639</v>
       </c>
       <c r="B1641">
-        <v>0.2973082</v>
+        <v>0.3414555</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13516,7 +13516,7 @@
         <v>1640</v>
       </c>
       <c r="B1642">
-        <v>0.2898767</v>
+        <v>0.3367742</v>
       </c>
     </row>
     <row r="1643" spans="1:2">
@@ -13524,7 +13524,7 @@
         <v>1641</v>
       </c>
       <c r="B1643">
-        <v>0.2824452</v>
+        <v>0.3320929</v>
       </c>
     </row>
     <row r="1644" spans="1:2">
@@ -13532,7 +13532,7 @@
         <v>1642</v>
       </c>
       <c r="B1644">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1645" spans="1:2">
@@ -13540,7 +13540,7 @@
         <v>1643</v>
       </c>
       <c r="B1645">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1646" spans="1:2">
@@ -13548,7 +13548,7 @@
         <v>1644</v>
       </c>
       <c r="B1646">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13556,7 +13556,7 @@
         <v>1645</v>
       </c>
       <c r="B1647">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
@@ -13564,7 +13564,7 @@
         <v>1646</v>
       </c>
       <c r="B1648">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1649" spans="1:2">
@@ -13572,7 +13572,7 @@
         <v>1647</v>
       </c>
       <c r="B1649">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1650" spans="1:2">
@@ -13580,7 +13580,7 @@
         <v>1648</v>
       </c>
       <c r="B1650">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1651" spans="1:2">
@@ -13588,7 +13588,7 @@
         <v>1649</v>
       </c>
       <c r="B1651">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1652" spans="1:2">
@@ -13596,7 +13596,7 @@
         <v>1650</v>
       </c>
       <c r="B1652">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1653" spans="1:2">
@@ -13604,7 +13604,7 @@
         <v>1651</v>
       </c>
       <c r="B1653">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1654" spans="1:2">
@@ -13612,7 +13612,7 @@
         <v>1652</v>
       </c>
       <c r="B1654">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1655" spans="1:2">
@@ -13620,7 +13620,7 @@
         <v>1653</v>
       </c>
       <c r="B1655">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1656" spans="1:2">
@@ -13628,7 +13628,7 @@
         <v>1654</v>
       </c>
       <c r="B1656">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1657" spans="1:2">
@@ -13636,7 +13636,7 @@
         <v>1655</v>
       </c>
       <c r="B1657">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1658" spans="1:2">
@@ -13644,7 +13644,7 @@
         <v>1656</v>
       </c>
       <c r="B1658">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1659" spans="1:2">
@@ -13652,7 +13652,7 @@
         <v>1657</v>
       </c>
       <c r="B1659">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1660" spans="1:2">
@@ -13660,7 +13660,7 @@
         <v>1658</v>
       </c>
       <c r="B1660">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13668,7 +13668,7 @@
         <v>1659</v>
       </c>
       <c r="B1661">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1662" spans="1:2">
@@ -13676,7 +13676,7 @@
         <v>1660</v>
       </c>
       <c r="B1662">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13684,7 +13684,7 @@
         <v>1661</v>
       </c>
       <c r="B1663">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1664" spans="1:2">
@@ -13692,7 +13692,7 @@
         <v>1662</v>
       </c>
       <c r="B1664">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
@@ -13700,7 +13700,7 @@
         <v>1663</v>
       </c>
       <c r="B1665">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13708,7 +13708,7 @@
         <v>1664</v>
       </c>
       <c r="B1666">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1667" spans="1:2">
@@ -13716,7 +13716,7 @@
         <v>1665</v>
       </c>
       <c r="B1667">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1668" spans="1:2">
@@ -13724,7 +13724,7 @@
         <v>1666</v>
       </c>
       <c r="B1668">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1669" spans="1:2">
@@ -13732,7 +13732,7 @@
         <v>1667</v>
       </c>
       <c r="B1669">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13740,7 +13740,7 @@
         <v>1668</v>
       </c>
       <c r="B1670">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
@@ -13748,7 +13748,7 @@
         <v>1669</v>
       </c>
       <c r="B1671">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1672" spans="1:2">
@@ -13756,7 +13756,7 @@
         <v>1670</v>
       </c>
       <c r="B1672">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1673" spans="1:2">
@@ -13764,7 +13764,7 @@
         <v>1671</v>
       </c>
       <c r="B1673">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1674" spans="1:2">
@@ -13772,7 +13772,7 @@
         <v>1672</v>
       </c>
       <c r="B1674">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1675" spans="1:2">
@@ -13780,7 +13780,7 @@
         <v>1673</v>
       </c>
       <c r="B1675">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1676" spans="1:2">
@@ -13788,7 +13788,7 @@
         <v>1674</v>
       </c>
       <c r="B1676">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1677" spans="1:2">
@@ -13796,7 +13796,7 @@
         <v>1675</v>
       </c>
       <c r="B1677">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
@@ -13804,7 +13804,7 @@
         <v>1676</v>
       </c>
       <c r="B1678">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1679" spans="1:2">
@@ -13812,7 +13812,7 @@
         <v>1677</v>
       </c>
       <c r="B1679">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -13820,7 +13820,7 @@
         <v>1678</v>
       </c>
       <c r="B1680">
-        <v>0.2742178</v>
+        <v>0.3264468</v>
       </c>
     </row>
     <row r="1681" spans="1:2">
@@ -13828,7 +13828,7 @@
         <v>1679</v>
       </c>
       <c r="B1681">
-        <v>0.2654301</v>
+        <v>0.3203035</v>
       </c>
     </row>
     <row r="1682" spans="1:2">
@@ -13836,7 +13836,7 @@
         <v>1680</v>
       </c>
       <c r="B1682">
-        <v>0.2566423</v>
+        <v>0.3141602</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13844,7 +13844,7 @@
         <v>1681</v>
       </c>
       <c r="B1683">
-        <v>0.2478546</v>
+        <v>0.3080169</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13852,7 +13852,7 @@
         <v>1682</v>
       </c>
       <c r="B1684">
-        <v>0.2390669</v>
+        <v>0.3018735</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -13860,7 +13860,7 @@
         <v>1683</v>
       </c>
       <c r="B1685">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
@@ -13868,7 +13868,7 @@
         <v>1684</v>
       </c>
       <c r="B1686">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1687" spans="1:2">
@@ -13876,7 +13876,7 @@
         <v>1685</v>
       </c>
       <c r="B1687">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1688" spans="1:2">
@@ -13884,7 +13884,7 @@
         <v>1686</v>
       </c>
       <c r="B1688">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -13892,7 +13892,7 @@
         <v>1687</v>
       </c>
       <c r="B1689">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -13900,7 +13900,7 @@
         <v>1688</v>
       </c>
       <c r="B1690">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1691" spans="1:2">
@@ -13908,7 +13908,7 @@
         <v>1689</v>
       </c>
       <c r="B1691">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13916,7 +13916,7 @@
         <v>1690</v>
       </c>
       <c r="B1692">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1693" spans="1:2">
@@ -13924,7 +13924,7 @@
         <v>1691</v>
       </c>
       <c r="B1693">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13932,7 +13932,7 @@
         <v>1692</v>
       </c>
       <c r="B1694">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1695" spans="1:2">
@@ -13940,7 +13940,7 @@
         <v>1693</v>
       </c>
       <c r="B1695">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1696" spans="1:2">
@@ -13948,7 +13948,7 @@
         <v>1694</v>
       </c>
       <c r="B1696">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -13956,7 +13956,7 @@
         <v>1695</v>
       </c>
       <c r="B1697">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1698" spans="1:2">
@@ -13964,7 +13964,7 @@
         <v>1696</v>
       </c>
       <c r="B1698">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1699" spans="1:2">
@@ -13972,7 +13972,7 @@
         <v>1697</v>
       </c>
       <c r="B1699">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -13980,7 +13980,7 @@
         <v>1698</v>
       </c>
       <c r="B1700">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -13988,7 +13988,7 @@
         <v>1699</v>
       </c>
       <c r="B1701">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -13996,7 +13996,7 @@
         <v>1700</v>
       </c>
       <c r="B1702">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1703" spans="1:2">
@@ -14004,7 +14004,7 @@
         <v>1701</v>
       </c>
       <c r="B1703">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1704" spans="1:2">
@@ -14012,7 +14012,7 @@
         <v>1702</v>
       </c>
       <c r="B1704">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1705" spans="1:2">
@@ -14020,7 +14020,7 @@
         <v>1703</v>
       </c>
       <c r="B1705">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1706" spans="1:2">
@@ -14028,7 +14028,7 @@
         <v>1704</v>
       </c>
       <c r="B1706">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14036,7 +14036,7 @@
         <v>1705</v>
       </c>
       <c r="B1707">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1708" spans="1:2">
@@ -14044,7 +14044,7 @@
         <v>1706</v>
       </c>
       <c r="B1708">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1709" spans="1:2">
@@ -14052,7 +14052,7 @@
         <v>1707</v>
       </c>
       <c r="B1709">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1710" spans="1:2">
@@ -14060,7 +14060,7 @@
         <v>1708</v>
       </c>
       <c r="B1710">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14068,7 +14068,7 @@
         <v>1709</v>
       </c>
       <c r="B1711">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14076,7 +14076,7 @@
         <v>1710</v>
       </c>
       <c r="B1712">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
@@ -14084,7 +14084,7 @@
         <v>1711</v>
       </c>
       <c r="B1713">
-        <v>0.2288195</v>
+        <v>0.2939042</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14092,7 +14092,7 @@
         <v>1712</v>
       </c>
       <c r="B1714">
-        <v>0.2184636</v>
+        <v>0.2848143</v>
       </c>
     </row>
     <row r="1715" spans="1:2">
@@ -14100,7 +14100,7 @@
         <v>1713</v>
       </c>
       <c r="B1715">
-        <v>0.2081077</v>
+        <v>0.2757243</v>
       </c>
     </row>
     <row r="1716" spans="1:2">
@@ -14108,7 +14108,7 @@
         <v>1714</v>
       </c>
       <c r="B1716">
-        <v>0.1977519</v>
+        <v>0.2666344</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14116,7 +14116,7 @@
         <v>1715</v>
       </c>
       <c r="B1717">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
@@ -14124,7 +14124,7 @@
         <v>1716</v>
       </c>
       <c r="B1718">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14132,7 +14132,7 @@
         <v>1717</v>
       </c>
       <c r="B1719">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
@@ -14140,7 +14140,7 @@
         <v>1718</v>
       </c>
       <c r="B1720">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14148,7 +14148,7 @@
         <v>1719</v>
       </c>
       <c r="B1721">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1722" spans="1:2">
@@ -14156,7 +14156,7 @@
         <v>1720</v>
       </c>
       <c r="B1722">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -14164,7 +14164,7 @@
         <v>1721</v>
       </c>
       <c r="B1723">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1724" spans="1:2">
@@ -14172,7 +14172,7 @@
         <v>1722</v>
       </c>
       <c r="B1724">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1725" spans="1:2">
@@ -14180,7 +14180,7 @@
         <v>1723</v>
       </c>
       <c r="B1725">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1726" spans="1:2">
@@ -14188,7 +14188,7 @@
         <v>1724</v>
       </c>
       <c r="B1726">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1727" spans="1:2">
@@ -14196,7 +14196,7 @@
         <v>1725</v>
       </c>
       <c r="B1727">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
@@ -14204,7 +14204,7 @@
         <v>1726</v>
       </c>
       <c r="B1728">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1729" spans="1:2">
@@ -14212,7 +14212,7 @@
         <v>1727</v>
       </c>
       <c r="B1729">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1730" spans="1:2">
@@ -14220,7 +14220,7 @@
         <v>1728</v>
       </c>
       <c r="B1730">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1731" spans="1:2">
@@ -14228,7 +14228,7 @@
         <v>1729</v>
       </c>
       <c r="B1731">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1732" spans="1:2">
@@ -14236,7 +14236,7 @@
         <v>1730</v>
       </c>
       <c r="B1732">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1733" spans="1:2">
@@ -14244,7 +14244,7 @@
         <v>1731</v>
       </c>
       <c r="B1733">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14252,7 +14252,7 @@
         <v>1732</v>
       </c>
       <c r="B1734">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14260,7 +14260,7 @@
         <v>1733</v>
       </c>
       <c r="B1735">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -14268,7 +14268,7 @@
         <v>1734</v>
       </c>
       <c r="B1736">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="1737" spans="1:2">
@@ -14276,7 +14276,7 @@
         <v>1735</v>
       </c>
       <c r="B1737">
-        <v>0.1916624</v>
+        <v>0.2609973</v>
       </c>
     </row>
     <row r="1738" spans="1:2">
@@ -14284,7 +14284,7 @@
         <v>1736</v>
       </c>
       <c r="B1738">
-        <v>0.1814347</v>
+        <v>0.2486757</v>
       </c>
     </row>
     <row r="1739" spans="1:2">
@@ -14292,7 +14292,7 @@
         <v>1737</v>
       </c>
       <c r="B1739">
-        <v>0.1712069</v>
+        <v>0.2363542</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14300,7 +14300,7 @@
         <v>1738</v>
       </c>
       <c r="B1740">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -14308,7 +14308,7 @@
         <v>1739</v>
       </c>
       <c r="B1741">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1742" spans="1:2">
@@ -14316,7 +14316,7 @@
         <v>1740</v>
       </c>
       <c r="B1742">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1743" spans="1:2">
@@ -14324,7 +14324,7 @@
         <v>1741</v>
       </c>
       <c r="B1743">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1744" spans="1:2">
@@ -14332,7 +14332,7 @@
         <v>1742</v>
       </c>
       <c r="B1744">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1745" spans="1:2">
@@ -14340,7 +14340,7 @@
         <v>1743</v>
       </c>
       <c r="B1745">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1746" spans="1:2">
@@ -14348,7 +14348,7 @@
         <v>1744</v>
       </c>
       <c r="B1746">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1747" spans="1:2">
@@ -14356,7 +14356,7 @@
         <v>1745</v>
       </c>
       <c r="B1747">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1748" spans="1:2">
@@ -14364,7 +14364,7 @@
         <v>1746</v>
       </c>
       <c r="B1748">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1749" spans="1:2">
@@ -14372,7 +14372,7 @@
         <v>1747</v>
       </c>
       <c r="B1749">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1750" spans="1:2">
@@ -14380,7 +14380,7 @@
         <v>1748</v>
       </c>
       <c r="B1750">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1751" spans="1:2">
@@ -14388,7 +14388,7 @@
         <v>1749</v>
       </c>
       <c r="B1751">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1752" spans="1:2">
@@ -14396,7 +14396,7 @@
         <v>1750</v>
       </c>
       <c r="B1752">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1753" spans="1:2">
@@ -14404,7 +14404,7 @@
         <v>1751</v>
       </c>
       <c r="B1753">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14412,7 +14412,7 @@
         <v>1752</v>
       </c>
       <c r="B1754">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1755" spans="1:2">
@@ -14420,7 +14420,7 @@
         <v>1753</v>
       </c>
       <c r="B1755">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14428,7 +14428,7 @@
         <v>1754</v>
       </c>
       <c r="B1756">
-        <v>0.1574903</v>
+        <v>0.2174677</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14436,7 +14436,7 @@
         <v>1755</v>
       </c>
       <c r="B1757">
-        <v>0.1484008</v>
+        <v>0.2020058</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
@@ -14444,7 +14444,7 @@
         <v>1756</v>
       </c>
       <c r="B1758">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="1759" spans="1:2">
@@ -14452,7 +14452,7 @@
         <v>1757</v>
       </c>
       <c r="B1759">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
@@ -14460,7 +14460,7 @@
         <v>1758</v>
       </c>
       <c r="B1760">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
@@ -14468,7 +14468,7 @@
         <v>1759</v>
       </c>
       <c r="B1761">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="1762" spans="1:2">
@@ -14476,7 +14476,7 @@
         <v>1760</v>
       </c>
       <c r="B1762">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="1763" spans="1:2">
@@ -14484,7 +14484,7 @@
         <v>1761</v>
       </c>
       <c r="B1763">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="1764" spans="1:2">
@@ -14492,7 +14492,7 @@
         <v>1762</v>
       </c>
       <c r="B1764">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="1765" spans="1:2">
@@ -14500,7 +14500,7 @@
         <v>1763</v>
       </c>
       <c r="B1765">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14508,7 +14508,7 @@
         <v>1764</v>
       </c>
       <c r="B1766">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="1767" spans="1:2">
@@ -14516,7 +14516,7 @@
         <v>1765</v>
       </c>
       <c r="B1767">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="1768" spans="1:2">
@@ -14524,7 +14524,7 @@
         <v>1766</v>
       </c>
       <c r="B1768">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="1769" spans="1:2">
@@ -14532,7 +14532,7 @@
         <v>1767</v>
       </c>
       <c r="B1769">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="1770" spans="1:2">
@@ -14540,7 +14540,7 @@
         <v>1768</v>
       </c>
       <c r="B1770">
-        <v>0.134452</v>
+        <v>0.1736607</v>
       </c>
     </row>
     <row r="1771" spans="1:2">
@@ -14548,7 +14548,7 @@
         <v>1769</v>
       </c>
       <c r="B1771">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="1772" spans="1:2">
@@ -14556,7 +14556,7 @@
         <v>1770</v>
       </c>
       <c r="B1772">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="1773" spans="1:2">
@@ -14564,7 +14564,7 @@
         <v>1771</v>
       </c>
       <c r="B1773">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="1774" spans="1:2">
@@ -14572,7 +14572,7 @@
         <v>1772</v>
       </c>
       <c r="B1774">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="1775" spans="1:2">
@@ -14580,7 +14580,7 @@
         <v>1773</v>
       </c>
       <c r="B1775">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14588,7 +14588,7 @@
         <v>1774</v>
       </c>
       <c r="B1776">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="1777" spans="1:2">
@@ -14596,7 +14596,7 @@
         <v>1775</v>
       </c>
       <c r="B1777">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="1778" spans="1:2">
@@ -14604,7 +14604,7 @@
         <v>1776</v>
       </c>
       <c r="B1778">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="1779" spans="1:2">
@@ -14612,7 +14612,7 @@
         <v>1777</v>
       </c>
       <c r="B1779">
-        <v>0.1253627</v>
+        <v>0.1503435</v>
       </c>
     </row>
     <row r="1780" spans="1:2">
@@ -14620,7 +14620,7 @@
         <v>1778</v>
       </c>
       <c r="B1780">
-        <v>0.1206138</v>
+        <v>0.1362931</v>
       </c>
     </row>
     <row r="1781" spans="1:2">
@@ -14628,7 +14628,7 @@
         <v>1779</v>
       </c>
       <c r="B1781">
-        <v>0.1206138</v>
+        <v>0.1362931</v>
       </c>
     </row>
     <row r="1782" spans="1:2">
@@ -14636,7 +14636,7 @@
         <v>1780</v>
       </c>
       <c r="B1782">
-        <v>0.1206138</v>
+        <v>0.1362931</v>
       </c>
     </row>
     <row r="1783" spans="1:2">
@@ -14644,7 +14644,7 @@
         <v>1781</v>
       </c>
       <c r="B1783">
-        <v>0.1206138</v>
+        <v>0.1362931</v>
       </c>
     </row>
     <row r="1784" spans="1:2">
@@ -14652,7 +14652,7 @@
         <v>1782</v>
       </c>
       <c r="B1784">
-        <v>0.1206138</v>
+        <v>0.1362931</v>
       </c>
     </row>
     <row r="1785" spans="1:2">
@@ -14660,7 +14660,7 @@
         <v>1783</v>
       </c>
       <c r="B1785">
-        <v>0.1206138</v>
+        <v>0.1362931</v>
       </c>
     </row>
     <row r="1786" spans="1:2">
@@ -14668,7 +14668,7 @@
         <v>1784</v>
       </c>
       <c r="B1786">
-        <v>0.1170537</v>
+        <v>0.1240407</v>
       </c>
     </row>
     <row r="1787" spans="1:2">
@@ -14676,7 +14676,7 @@
         <v>1785</v>
       </c>
       <c r="B1787">
-        <v>0.1154491</v>
+        <v>0.1185185</v>
       </c>
     </row>
     <row r="1788" spans="1:2">
@@ -14684,7 +14684,7 @@
         <v>1786</v>
       </c>
       <c r="B1788">
-        <v>0.1154491</v>
+        <v>0.1185185</v>
       </c>
     </row>
     <row r="1789" spans="1:2">
@@ -14692,7 +14692,7 @@
         <v>1787</v>
       </c>
       <c r="B1789">
-        <v>0.1154491</v>
+        <v>0.1185185</v>
       </c>
     </row>
     <row r="1790" spans="1:2">
@@ -14700,7 +14700,7 @@
         <v>1788</v>
       </c>
       <c r="B1790">
-        <v>0.1154491</v>
+        <v>0.1185185</v>
       </c>
     </row>
     <row r="1791" spans="1:2">
@@ -14708,7 +14708,7 @@
         <v>1789</v>
       </c>
       <c r="B1791">
-        <v>0.1133181</v>
+        <v>0.1107077</v>
       </c>
     </row>
     <row r="1792" spans="1:2">
@@ -14716,7 +14716,7 @@
         <v>1790</v>
       </c>
       <c r="B1792">
-        <v>0.1121294</v>
+        <v>0.1063507</v>
       </c>
     </row>
     <row r="1793" spans="1:2">
@@ -14724,7 +14724,7 @@
         <v>1791</v>
       </c>
       <c r="B1793">
-        <v>0.1121294</v>
+        <v>0.1063507</v>
       </c>
     </row>
     <row r="1794" spans="1:2">
@@ -14732,7 +14732,7 @@
         <v>1792</v>
       </c>
       <c r="B1794">
-        <v>0.1120667</v>
+        <v>0.106125</v>
       </c>
     </row>
     <row r="1795" spans="1:2">
@@ -14740,7 +14740,7 @@
         <v>1793</v>
       </c>
       <c r="B1795">
-        <v>0.1098268</v>
+        <v>0.0980685</v>
       </c>
     </row>
     <row r="1796" spans="1:2">
@@ -14748,7 +14748,7 @@
         <v>1794</v>
       </c>
       <c r="B1796">
-        <v>0.1098268</v>
+        <v>0.0980685</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/collate_cultivar_data/data/fit_of_kcp_vs_cumulative_gdd.xlsx
+++ b/DATA/collate_cultivar_data/data/fit_of_kcp_vs_cumulative_gdd.xlsx
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1094312</v>
+        <v>0.1096216</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1099383</v>
+        <v>0.1101343</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1099383</v>
+        <v>0.1101343</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1099383</v>
+        <v>0.1101343</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1099383</v>
+        <v>0.1101343</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1099383</v>
+        <v>0.1101343</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1099383</v>
+        <v>0.1101343</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1103325</v>
+        <v>0.1105267</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1105753</v>
+        <v>0.1107684</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1105753</v>
+        <v>0.1107684</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1105753</v>
+        <v>0.1107684</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.1105753</v>
+        <v>0.1107684</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1105753</v>
+        <v>0.1107684</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1105753</v>
+        <v>0.1107684</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1105753</v>
+        <v>0.1107684</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1105831</v>
+        <v>0.1107761</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1110297</v>
+        <v>0.1112145</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1113743</v>
+        <v>0.1115501</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1116654</v>
+        <v>0.1118316</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1116654</v>
+        <v>0.1118316</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1116654</v>
+        <v>0.1118316</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1116654</v>
+        <v>0.1118316</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1116654</v>
+        <v>0.1118316</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1116654</v>
+        <v>0.1118316</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1116654</v>
+        <v>0.1118316</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1118186</v>
+        <v>0.1119752</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1119481</v>
+        <v>0.1120966</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1119481</v>
+        <v>0.1120966</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1119481</v>
+        <v>0.1120966</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1119481</v>
+        <v>0.1120966</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1119481</v>
+        <v>0.1120966</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1120475</v>
+        <v>0.1121765</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1120475</v>
+        <v>0.1121765</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1120475</v>
+        <v>0.1121765</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1120475</v>
+        <v>0.1121765</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.112072</v>
+        <v>0.1121934</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1121255</v>
+        <v>0.1122303</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1121255</v>
+        <v>0.1122303</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1121255</v>
+        <v>0.1122303</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.1121255</v>
+        <v>0.1122303</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1121255</v>
+        <v>0.1122303</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.1122939</v>
+        <v>0.1123846</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.1124935</v>
+        <v>0.1125673</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1124935</v>
+        <v>0.1125673</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.1124935</v>
+        <v>0.1125673</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1124935</v>
+        <v>0.1125673</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.1124935</v>
+        <v>0.1125673</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1124935</v>
+        <v>0.1125673</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1124935</v>
+        <v>0.1125673</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1128363</v>
+        <v>0.112899</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1137696</v>
+        <v>0.1138058</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.1150786</v>
+        <v>0.1150959</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.1169227</v>
+        <v>0.1169236</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.1187266</v>
+        <v>0.1187167</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.1194935</v>
+        <v>0.1194796</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.1216463</v>
+        <v>0.121628</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.1237992</v>
+        <v>0.1237764</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.1253076</v>
+        <v>0.1252826</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.127773</v>
+        <v>0.1277471</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.1302383</v>
+        <v>0.1302116</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.1327037</v>
+        <v>0.1326761</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1556,7 +1556,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1564,7 +1564,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1572,7 +1572,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1580,7 +1580,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1588,7 +1588,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1596,7 +1596,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1604,7 +1604,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1612,7 +1612,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1620,7 +1620,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1628,7 +1628,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.1355455</v>
+        <v>0.1355187</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1636,7 +1636,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.1384701</v>
+        <v>0.138444</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1644,7 +1644,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.1413946</v>
+        <v>0.1413693</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1652,7 +1652,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1660,7 +1660,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1668,7 +1668,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1676,7 +1676,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1684,7 +1684,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1692,7 +1692,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1700,7 +1700,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1708,7 +1708,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1716,7 +1716,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1724,7 +1724,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1732,7 +1732,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1740,7 +1740,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1748,7 +1748,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1756,7 +1756,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1764,7 +1764,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1772,7 +1772,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1780,7 +1780,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1788,7 +1788,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1796,7 +1796,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1804,7 +1804,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1812,7 +1812,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1820,7 +1820,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1828,7 +1828,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1836,7 +1836,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1844,7 +1844,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.1438205</v>
+        <v>0.1437958</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1852,7 +1852,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.1472906</v>
+        <v>0.1472671</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1860,7 +1860,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.1507606</v>
+        <v>0.1507384</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1868,7 +1868,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.1542307</v>
+        <v>0.1542098</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1876,7 +1876,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.1577008</v>
+        <v>0.1576811</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1884,7 +1884,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1892,7 +1892,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1900,7 +1900,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1908,7 +1908,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1916,7 +1916,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1924,7 +1924,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1932,7 +1932,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1940,7 +1940,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1948,7 +1948,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1956,7 +1956,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1964,7 +1964,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1972,7 +1972,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1980,7 +1980,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1988,7 +1988,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1996,7 +1996,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2004,7 +2004,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2012,7 +2012,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2020,7 +2020,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2028,7 +2028,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2036,7 +2036,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2044,7 +2044,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2052,7 +2052,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2060,7 +2060,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2068,7 +2068,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2076,7 +2076,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2084,7 +2084,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2092,7 +2092,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2100,7 +2100,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2108,7 +2108,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.1610098</v>
+        <v>0.1609912</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2116,7 +2116,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.1649056</v>
+        <v>0.1648881</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2124,7 +2124,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.1688013</v>
+        <v>0.168785</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2132,7 +2132,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.1726971</v>
+        <v>0.1726819</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2140,7 +2140,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.1765929</v>
+        <v>0.1765788</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2148,7 +2148,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2156,7 +2156,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2164,7 +2164,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2172,7 +2172,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2180,7 +2180,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2188,7 +2188,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2196,7 +2196,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2204,7 +2204,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2212,7 +2212,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2220,7 +2220,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2228,7 +2228,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2236,7 +2236,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2244,7 +2244,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2252,7 +2252,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2260,7 +2260,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2268,7 +2268,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2276,7 +2276,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2284,7 +2284,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2292,7 +2292,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2300,7 +2300,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2308,7 +2308,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2316,7 +2316,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2324,7 +2324,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2332,7 +2332,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2340,7 +2340,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2348,7 +2348,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2356,7 +2356,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2364,7 +2364,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2372,7 +2372,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2380,7 +2380,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2388,7 +2388,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2396,7 +2396,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2404,7 +2404,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2412,7 +2412,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.1806687</v>
+        <v>0.1806556</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2420,7 +2420,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.1850087</v>
+        <v>0.1849965</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2428,7 +2428,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.1893487</v>
+        <v>0.1893374</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2436,7 +2436,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.1936887</v>
+        <v>0.1936782</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2444,7 +2444,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.1980287</v>
+        <v>0.1980191</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2452,7 +2452,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.2023687</v>
+        <v>0.2023599</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2460,7 +2460,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2468,7 +2468,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2476,7 +2476,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2484,7 +2484,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2492,7 +2492,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2500,7 +2500,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2508,7 +2508,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2516,7 +2516,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2524,7 +2524,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2532,7 +2532,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2540,7 +2540,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2548,7 +2548,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2556,7 +2556,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2564,7 +2564,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2572,7 +2572,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2580,7 +2580,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2588,7 +2588,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2596,7 +2596,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2604,7 +2604,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2612,7 +2612,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2620,7 +2620,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2628,7 +2628,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2636,7 +2636,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2644,7 +2644,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2652,7 +2652,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2660,7 +2660,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2668,7 +2668,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2676,7 +2676,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2684,7 +2684,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2692,7 +2692,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2700,7 +2700,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2708,7 +2708,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2716,7 +2716,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2724,7 +2724,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2732,7 +2732,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2740,7 +2740,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2748,7 +2748,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.2058267</v>
+        <v>0.2058186</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2756,7 +2756,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.2108615</v>
+        <v>0.210854</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2764,7 +2764,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.2158963</v>
+        <v>0.2158894</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2772,7 +2772,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.2209311</v>
+        <v>0.2209249</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2780,7 +2780,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.2259659</v>
+        <v>0.2259603</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2788,7 +2788,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.2310007</v>
+        <v>0.2309957</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2796,7 +2796,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2804,7 +2804,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2812,7 +2812,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2820,7 +2820,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2828,7 +2828,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2836,7 +2836,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2844,7 +2844,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2852,7 +2852,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2860,7 +2860,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2868,7 +2868,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2876,7 +2876,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2884,7 +2884,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2892,7 +2892,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2900,7 +2900,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2908,7 +2908,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2916,7 +2916,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2924,7 +2924,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2932,7 +2932,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2940,7 +2940,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2948,7 +2948,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2956,7 +2956,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2964,7 +2964,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2972,7 +2972,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2980,7 +2980,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2988,7 +2988,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2996,7 +2996,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3004,7 +3004,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3012,7 +3012,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3020,7 +3020,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3028,7 +3028,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3036,7 +3036,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3044,7 +3044,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3052,7 +3052,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3060,7 +3060,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3068,7 +3068,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3076,7 +3076,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3084,7 +3084,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3092,7 +3092,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.2390318</v>
+        <v>0.2390276</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3100,7 +3100,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.2448844</v>
+        <v>0.2448806</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3108,7 +3108,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.2507369</v>
+        <v>0.2507335</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3116,7 +3116,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.2565895</v>
+        <v>0.2565865</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3124,7 +3124,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.262442</v>
+        <v>0.2624394</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3132,7 +3132,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.2682946</v>
+        <v>0.2682924</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3140,7 +3140,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3148,7 +3148,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3156,7 +3156,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3164,7 +3164,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3172,7 +3172,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3180,7 +3180,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3188,7 +3188,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3196,7 +3196,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3204,7 +3204,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3212,7 +3212,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3220,7 +3220,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3228,7 +3228,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3236,7 +3236,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3244,7 +3244,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3252,7 +3252,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3260,7 +3260,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3268,7 +3268,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3276,7 +3276,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3284,7 +3284,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3292,7 +3292,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3300,7 +3300,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3308,7 +3308,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3316,7 +3316,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3324,7 +3324,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3332,7 +3332,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3340,7 +3340,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3348,7 +3348,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3356,7 +3356,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3364,7 +3364,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3372,7 +3372,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3380,7 +3380,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3388,7 +3388,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3396,7 +3396,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3404,7 +3404,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3412,7 +3412,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3420,7 +3420,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.2707166</v>
+        <v>0.2707146</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3428,7 +3428,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.2769555</v>
+        <v>0.2769536</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3436,7 +3436,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.2831943</v>
+        <v>0.2831927</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3444,7 +3444,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.2894332</v>
+        <v>0.2894317</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3452,7 +3452,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.295672</v>
+        <v>0.2956707</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3460,7 +3460,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.3019108</v>
+        <v>0.3019098</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3468,7 +3468,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3476,7 +3476,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3484,7 +3484,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3492,7 +3492,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3500,7 +3500,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3508,7 +3508,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3516,7 +3516,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3524,7 +3524,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3532,7 +3532,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3540,7 +3540,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3548,7 +3548,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3556,7 +3556,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3564,7 +3564,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3572,7 +3572,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3580,7 +3580,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3588,7 +3588,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3596,7 +3596,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3604,7 +3604,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3612,7 +3612,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3620,7 +3620,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3628,7 +3628,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3636,7 +3636,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3644,7 +3644,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3652,7 +3652,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3660,7 +3660,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3700,7 +3700,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3708,7 +3708,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3716,7 +3716,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3724,7 +3724,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3732,7 +3732,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3740,7 +3740,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3748,7 +3748,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3756,7 +3756,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.3071984</v>
+        <v>0.3071975</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3764,7 +3764,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.3129138</v>
+        <v>0.312913</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3772,7 +3772,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.3186291</v>
+        <v>0.3186284</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3780,7 +3780,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.3243445</v>
+        <v>0.3243438</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3788,7 +3788,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.3300598</v>
+        <v>0.3300593</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3796,7 +3796,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.3357751</v>
+        <v>0.3357747</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3804,7 +3804,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.3414905</v>
+        <v>0.3414902</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3812,7 +3812,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3820,7 +3820,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3828,7 +3828,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3836,7 +3836,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3844,7 +3844,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3852,7 +3852,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3860,7 +3860,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3868,7 +3868,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3876,7 +3876,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3884,7 +3884,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3892,7 +3892,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3900,7 +3900,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3908,7 +3908,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3916,7 +3916,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3924,7 +3924,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3932,7 +3932,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3940,7 +3940,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3948,7 +3948,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3956,7 +3956,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3964,7 +3964,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3972,7 +3972,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3980,7 +3980,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3988,7 +3988,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3996,7 +3996,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4004,7 +4004,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4012,7 +4012,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4020,7 +4020,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4028,7 +4028,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4036,7 +4036,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4044,7 +4044,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4052,7 +4052,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4060,7 +4060,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4068,7 +4068,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4076,7 +4076,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4084,7 +4084,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4092,7 +4092,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4100,7 +4100,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4108,7 +4108,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4116,7 +4116,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4124,7 +4124,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>0.345976</v>
+        <v>0.3459757</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4132,7 +4132,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.3505572</v>
+        <v>0.3505569</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4140,7 +4140,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.3551384</v>
+        <v>0.3551382</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4148,7 +4148,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.3597196</v>
+        <v>0.3597195</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4156,7 +4156,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.3643009</v>
+        <v>0.3643007</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4164,7 +4164,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.3688821</v>
+        <v>0.368882</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4172,7 +4172,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.3734633</v>
+        <v>0.3734632</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4180,7 +4180,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4188,7 +4188,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4196,7 +4196,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4204,7 +4204,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4212,7 +4212,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4220,7 +4220,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4228,7 +4228,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4236,7 +4236,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4244,7 +4244,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4252,7 +4252,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4260,7 +4260,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4268,7 +4268,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4276,7 +4276,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4284,7 +4284,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4292,7 +4292,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4300,7 +4300,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4308,7 +4308,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4316,7 +4316,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4324,7 +4324,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4332,7 +4332,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4340,7 +4340,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4348,7 +4348,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4356,7 +4356,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4364,7 +4364,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4372,7 +4372,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4380,7 +4380,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4388,7 +4388,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4396,7 +4396,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4404,7 +4404,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4420,7 +4420,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4444,7 +4444,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4452,7 +4452,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4468,7 +4468,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4476,7 +4476,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4484,7 +4484,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4492,7 +4492,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4500,7 +4500,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4508,7 +4508,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4516,7 +4516,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4524,7 +4524,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>0.3768726</v>
+        <v>0.3768725</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4532,7 +4532,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>0.3802725</v>
+        <v>0.3802724</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4540,7 +4540,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>0.3836724</v>
+        <v>0.3836723</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4548,7 +4548,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>0.3870723</v>
+        <v>0.3870722</v>
       </c>
     </row>
     <row r="522" spans="1:2">
